--- a/Fleet.xlsx
+++ b/Fleet.xlsx
@@ -5,20 +5,19 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sarensnass.sharepoint.com/sites/FS/Shared Documents/UPDATED FILES/Fleet Maintenance - Services/Only for me/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qatar Sarens Gulf\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="593" documentId="13_ncr:1_{701839C8-EF35-475A-87BB-9791FD490CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE038F30-CE83-4CE3-B73A-7E15BD064F2C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1F10E9-C14D-4361-9C11-5D632D3D5E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB5E0735-E981-4D65-8766-4471E111115C}"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicles &amp; others" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vehicles &amp; others'!$A$1:$L$177</definedName>
-    <definedName name="_xlcn.WorksheetConnection_VehiclesothersA1K1501" hidden="1">'Vehicles &amp; others'!$A$2:$K$148</definedName>
+    <definedName name="_xlcn.WorksheetConnection_VehiclesothersA1K150" hidden="1">'Vehicles &amp; others'!$A$2:$K$148</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -62,7 +61,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_VehiclesothersA1K1501"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_VehiclesothersA1K150"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -71,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="538">
   <si>
     <t>QAIG-AT-18</t>
   </si>
@@ -2152,7 +2151,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H162" sqref="H162"/>
+      <selection pane="bottomRight" activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7691,1387 +7690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0053DE-C8BB-4AC6-8CCF-946C76A3389B}">
-  <dimension ref="D1:E168"/>
-  <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E2">
-        <v>8407</v>
-      </c>
-    </row>
-    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3">
-        <v>8413</v>
-      </c>
-    </row>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E4">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E5">
-        <v>8689</v>
-      </c>
-    </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E6">
-        <v>8680</v>
-      </c>
-    </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E7">
-        <v>8804</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8">
-        <v>8843</v>
-      </c>
-    </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E9">
-        <v>8834</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10">
-        <v>8815</v>
-      </c>
-    </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>195</v>
-      </c>
-      <c r="E11">
-        <v>2934</v>
-      </c>
-    </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E12">
-        <v>2968</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13">
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>198</v>
-      </c>
-      <c r="E14">
-        <v>8790</v>
-      </c>
-    </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>199</v>
-      </c>
-      <c r="E15">
-        <v>5507</v>
-      </c>
-    </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>200</v>
-      </c>
-      <c r="E16">
-        <v>8812</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>201</v>
-      </c>
-      <c r="E17">
-        <v>5139</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>202</v>
-      </c>
-      <c r="E18">
-        <v>5584</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>203</v>
-      </c>
-      <c r="E19">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>204</v>
-      </c>
-      <c r="E20">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>205</v>
-      </c>
-      <c r="E21">
-        <v>5791</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>206</v>
-      </c>
-      <c r="E22">
-        <v>5955</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>207</v>
-      </c>
-      <c r="E23">
-        <v>5956</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>208</v>
-      </c>
-      <c r="E24">
-        <v>5996</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>209</v>
-      </c>
-      <c r="E25">
-        <v>9031</v>
-      </c>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>210</v>
-      </c>
-      <c r="E26">
-        <v>9032</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>211</v>
-      </c>
-      <c r="E27">
-        <v>9033</v>
-      </c>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>212</v>
-      </c>
-      <c r="E28">
-        <v>8688</v>
-      </c>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>213</v>
-      </c>
-      <c r="E29">
-        <v>3939</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>214</v>
-      </c>
-      <c r="E30">
-        <v>2778</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>215</v>
-      </c>
-      <c r="E31">
-        <v>9448</v>
-      </c>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>216</v>
-      </c>
-      <c r="E32">
-        <v>9449</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>217</v>
-      </c>
-      <c r="E33">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>218</v>
-      </c>
-      <c r="E34">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>219</v>
-      </c>
-      <c r="E35">
-        <v>9465</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>220</v>
-      </c>
-      <c r="E36">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>221</v>
-      </c>
-      <c r="E37">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>222</v>
-      </c>
-      <c r="E38">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>223</v>
-      </c>
-      <c r="E39">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>224</v>
-      </c>
-      <c r="E40">
-        <v>2777</v>
-      </c>
-    </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>225</v>
-      </c>
-      <c r="E41">
-        <v>2942</v>
-      </c>
-    </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>226</v>
-      </c>
-      <c r="E42">
-        <v>8847</v>
-      </c>
-    </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>227</v>
-      </c>
-      <c r="E43">
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>228</v>
-      </c>
-      <c r="E44">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>229</v>
-      </c>
-      <c r="E45">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>230</v>
-      </c>
-      <c r="E46">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>231</v>
-      </c>
-      <c r="E47">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>232</v>
-      </c>
-      <c r="E48">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>233</v>
-      </c>
-      <c r="E49">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>234</v>
-      </c>
-      <c r="E50">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
-        <v>235</v>
-      </c>
-      <c r="E51">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>236</v>
-      </c>
-      <c r="E52">
-        <v>6153</v>
-      </c>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>237</v>
-      </c>
-      <c r="E53">
-        <v>3309</v>
-      </c>
-    </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>238</v>
-      </c>
-      <c r="E54">
-        <v>3359</v>
-      </c>
-    </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>239</v>
-      </c>
-      <c r="E55">
-        <v>3383</v>
-      </c>
-    </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
-        <v>240</v>
-      </c>
-      <c r="E56">
-        <v>3384</v>
-      </c>
-    </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>241</v>
-      </c>
-      <c r="E57">
-        <v>3385</v>
-      </c>
-    </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>242</v>
-      </c>
-      <c r="E58">
-        <v>3394</v>
-      </c>
-    </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
-        <v>243</v>
-      </c>
-      <c r="E59">
-        <v>3386</v>
-      </c>
-    </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>244</v>
-      </c>
-      <c r="E60">
-        <v>3077</v>
-      </c>
-    </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>245</v>
-      </c>
-      <c r="E61">
-        <v>3098</v>
-      </c>
-    </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
-        <v>246</v>
-      </c>
-      <c r="E62">
-        <v>3104</v>
-      </c>
-    </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>247</v>
-      </c>
-      <c r="E63">
-        <v>3105</v>
-      </c>
-    </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
-        <v>248</v>
-      </c>
-      <c r="E64">
-        <v>3078</v>
-      </c>
-    </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
-        <v>249</v>
-      </c>
-      <c r="E65">
-        <v>30308</v>
-      </c>
-    </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>250</v>
-      </c>
-      <c r="E66">
-        <v>30895</v>
-      </c>
-    </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
-        <v>251</v>
-      </c>
-      <c r="E67">
-        <v>30902</v>
-      </c>
-    </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
-        <v>252</v>
-      </c>
-      <c r="E68">
-        <v>5298</v>
-      </c>
-    </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
-        <v>253</v>
-      </c>
-      <c r="E69">
-        <v>8859</v>
-      </c>
-    </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D70" t="s">
-        <v>253</v>
-      </c>
-      <c r="E70">
-        <v>8859</v>
-      </c>
-    </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D71" t="s">
-        <v>253</v>
-      </c>
-      <c r="E71">
-        <v>8859</v>
-      </c>
-    </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D72" t="s">
-        <v>254</v>
-      </c>
-      <c r="E72">
-        <v>8867</v>
-      </c>
-    </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
-        <v>254</v>
-      </c>
-      <c r="E73">
-        <v>8867</v>
-      </c>
-    </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D74" t="s">
-        <v>254</v>
-      </c>
-      <c r="E74">
-        <v>8867</v>
-      </c>
-    </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
-        <v>254</v>
-      </c>
-      <c r="E75">
-        <v>8867</v>
-      </c>
-    </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D76" t="s">
-        <v>254</v>
-      </c>
-      <c r="E76">
-        <v>8867</v>
-      </c>
-    </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D77" t="s">
-        <v>255</v>
-      </c>
-      <c r="E77">
-        <v>3268</v>
-      </c>
-    </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D78" t="s">
-        <v>255</v>
-      </c>
-      <c r="E78">
-        <v>3268</v>
-      </c>
-    </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
-        <v>256</v>
-      </c>
-      <c r="E79">
-        <v>3264</v>
-      </c>
-    </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
-        <v>256</v>
-      </c>
-      <c r="E80">
-        <v>3264</v>
-      </c>
-    </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D81" t="s">
-        <v>257</v>
-      </c>
-      <c r="E81">
-        <v>8872</v>
-      </c>
-    </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D82" t="s">
-        <v>258</v>
-      </c>
-      <c r="E82">
-        <v>8873</v>
-      </c>
-    </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
-        <v>259</v>
-      </c>
-      <c r="E83">
-        <v>8874</v>
-      </c>
-    </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
-        <v>260</v>
-      </c>
-      <c r="E84">
-        <v>8877</v>
-      </c>
-    </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D85" t="s">
-        <v>261</v>
-      </c>
-      <c r="E85">
-        <v>30238</v>
-      </c>
-    </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
-        <v>262</v>
-      </c>
-      <c r="E86">
-        <v>30249</v>
-      </c>
-    </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
-        <v>263</v>
-      </c>
-      <c r="E87">
-        <v>30599</v>
-      </c>
-    </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D88" t="s">
-        <v>264</v>
-      </c>
-      <c r="E88">
-        <v>30247</v>
-      </c>
-    </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D89" t="s">
-        <v>265</v>
-      </c>
-      <c r="E89">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D90" t="s">
-        <v>266</v>
-      </c>
-      <c r="E90">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D91" t="s">
-        <v>267</v>
-      </c>
-      <c r="E91">
-        <v>6999</v>
-      </c>
-    </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D92" t="s">
-        <v>268</v>
-      </c>
-      <c r="E92">
-        <v>7478</v>
-      </c>
-    </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D93" t="s">
-        <v>269</v>
-      </c>
-      <c r="E93">
-        <v>7479</v>
-      </c>
-    </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D94" t="s">
-        <v>270</v>
-      </c>
-      <c r="E94">
-        <v>7480</v>
-      </c>
-    </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D95" t="s">
-        <v>271</v>
-      </c>
-      <c r="E95">
-        <v>7481</v>
-      </c>
-    </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D96" t="s">
-        <v>272</v>
-      </c>
-      <c r="E96">
-        <v>7482</v>
-      </c>
-    </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D97" t="s">
-        <v>273</v>
-      </c>
-      <c r="E97">
-        <v>7483</v>
-      </c>
-    </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D98" t="s">
-        <v>274</v>
-      </c>
-      <c r="E98">
-        <v>8139</v>
-      </c>
-    </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D99" t="s">
-        <v>275</v>
-      </c>
-      <c r="E99">
-        <v>7179</v>
-      </c>
-    </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D100" t="s">
-        <v>276</v>
-      </c>
-      <c r="E100">
-        <v>5136</v>
-      </c>
-    </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D101" t="s">
-        <v>277</v>
-      </c>
-      <c r="E101">
-        <v>5137</v>
-      </c>
-    </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D102" t="s">
-        <v>278</v>
-      </c>
-      <c r="E102">
-        <v>5293</v>
-      </c>
-    </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D103" t="s">
-        <v>279</v>
-      </c>
-      <c r="E103">
-        <v>5790</v>
-      </c>
-    </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D104" t="s">
-        <v>280</v>
-      </c>
-      <c r="E104">
-        <v>5789</v>
-      </c>
-    </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D105" t="s">
-        <v>281</v>
-      </c>
-      <c r="E105">
-        <v>8861</v>
-      </c>
-    </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D106" t="s">
-        <v>282</v>
-      </c>
-      <c r="E106">
-        <v>30822</v>
-      </c>
-    </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D107" t="s">
-        <v>283</v>
-      </c>
-      <c r="E107">
-        <v>30823</v>
-      </c>
-    </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D108" t="s">
-        <v>284</v>
-      </c>
-      <c r="E108">
-        <v>30824</v>
-      </c>
-    </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D109" t="s">
-        <v>285</v>
-      </c>
-      <c r="E109">
-        <v>30825</v>
-      </c>
-    </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D110" t="s">
-        <v>286</v>
-      </c>
-      <c r="E110">
-        <v>30826</v>
-      </c>
-    </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D111" t="s">
-        <v>287</v>
-      </c>
-      <c r="E111">
-        <v>30827</v>
-      </c>
-    </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D112" t="s">
-        <v>288</v>
-      </c>
-      <c r="E112">
-        <v>30828</v>
-      </c>
-    </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D113" t="s">
-        <v>289</v>
-      </c>
-      <c r="E113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D114" t="s">
-        <v>290</v>
-      </c>
-      <c r="E114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D115" t="s">
-        <v>291</v>
-      </c>
-      <c r="E115">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D116" t="s">
-        <v>292</v>
-      </c>
-      <c r="E116">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D117" t="s">
-        <v>293</v>
-      </c>
-      <c r="E117">
-        <v>5447</v>
-      </c>
-    </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D118" t="s">
-        <v>294</v>
-      </c>
-      <c r="E118">
-        <v>5448</v>
-      </c>
-    </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D119" t="s">
-        <v>295</v>
-      </c>
-      <c r="E119">
-        <v>8870</v>
-      </c>
-    </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D120" t="s">
-        <v>296</v>
-      </c>
-      <c r="E120">
-        <v>8868</v>
-      </c>
-    </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D121" t="s">
-        <v>297</v>
-      </c>
-      <c r="E121">
-        <v>8959</v>
-      </c>
-    </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D122" t="s">
-        <v>298</v>
-      </c>
-      <c r="E122">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D123" t="s">
-        <v>299</v>
-      </c>
-      <c r="E123">
-        <v>3265</v>
-      </c>
-    </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D124" t="s">
-        <v>300</v>
-      </c>
-      <c r="E124">
-        <v>3176</v>
-      </c>
-    </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D125" t="s">
-        <v>301</v>
-      </c>
-      <c r="E125">
-        <v>8583</v>
-      </c>
-    </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D126" t="s">
-        <v>302</v>
-      </c>
-      <c r="E126">
-        <v>8584</v>
-      </c>
-    </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D127" t="s">
-        <v>303</v>
-      </c>
-      <c r="E127">
-        <v>2354</v>
-      </c>
-    </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D128" t="s">
-        <v>304</v>
-      </c>
-      <c r="E128">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D129" t="s">
-        <v>305</v>
-      </c>
-      <c r="E129">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D130" t="s">
-        <v>306</v>
-      </c>
-      <c r="E130">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D131" t="s">
-        <v>307</v>
-      </c>
-      <c r="E131">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D132" t="s">
-        <v>308</v>
-      </c>
-      <c r="E132">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D133" t="s">
-        <v>309</v>
-      </c>
-      <c r="E133">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D134" t="s">
-        <v>310</v>
-      </c>
-      <c r="E134">
-        <v>6868</v>
-      </c>
-    </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D135" t="s">
-        <v>311</v>
-      </c>
-      <c r="E135">
-        <v>8258</v>
-      </c>
-    </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D136" t="s">
-        <v>312</v>
-      </c>
-      <c r="E136">
-        <v>8259</v>
-      </c>
-    </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D137" t="s">
-        <v>313</v>
-      </c>
-      <c r="E137">
-        <v>7202</v>
-      </c>
-    </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D138" t="s">
-        <v>314</v>
-      </c>
-      <c r="E138">
-        <v>7201</v>
-      </c>
-    </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D139" t="s">
-        <v>315</v>
-      </c>
-      <c r="E139">
-        <v>8953</v>
-      </c>
-    </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D140" t="s">
-        <v>316</v>
-      </c>
-      <c r="E140">
-        <v>9346</v>
-      </c>
-    </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D141" t="s">
-        <v>317</v>
-      </c>
-      <c r="E141">
-        <v>9344</v>
-      </c>
-    </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D142" t="s">
-        <v>318</v>
-      </c>
-      <c r="E142">
-        <v>5496</v>
-      </c>
-    </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D143" t="s">
-        <v>319</v>
-      </c>
-      <c r="E143">
-        <v>2529</v>
-      </c>
-    </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D144" t="s">
-        <v>320</v>
-      </c>
-      <c r="E144">
-        <v>5497</v>
-      </c>
-    </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D145" t="s">
-        <v>321</v>
-      </c>
-      <c r="E145">
-        <v>5499</v>
-      </c>
-    </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D146" t="s">
-        <v>322</v>
-      </c>
-      <c r="E146">
-        <v>5954</v>
-      </c>
-    </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D147" t="s">
-        <v>323</v>
-      </c>
-      <c r="E147">
-        <v>30593</v>
-      </c>
-    </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D148" t="s">
-        <v>324</v>
-      </c>
-      <c r="E148">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D149" t="s">
-        <v>325</v>
-      </c>
-      <c r="E149">
-        <v>8799</v>
-      </c>
-    </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D150" t="s">
-        <v>468</v>
-      </c>
-      <c r="E150">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D151" t="s">
-        <v>464</v>
-      </c>
-      <c r="E151">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D152" t="s">
-        <v>460</v>
-      </c>
-      <c r="E152">
-        <v>2783</v>
-      </c>
-    </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D153" t="s">
-        <v>471</v>
-      </c>
-      <c r="E153">
-        <v>5276</v>
-      </c>
-    </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D154" t="s">
-        <v>469</v>
-      </c>
-      <c r="E154">
-        <v>5277</v>
-      </c>
-    </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D155" t="s">
-        <v>470</v>
-      </c>
-      <c r="E155">
-        <v>5278</v>
-      </c>
-    </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D156" t="s">
-        <v>466</v>
-      </c>
-      <c r="E156">
-        <v>8379</v>
-      </c>
-    </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D157" t="s">
-        <v>459</v>
-      </c>
-      <c r="E157">
-        <v>8380</v>
-      </c>
-    </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D158" t="s">
-        <v>458</v>
-      </c>
-      <c r="E158">
-        <v>8388</v>
-      </c>
-    </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D159" t="s">
-        <v>467</v>
-      </c>
-      <c r="E159">
-        <v>8389</v>
-      </c>
-    </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D160" t="s">
-        <v>461</v>
-      </c>
-      <c r="E160">
-        <v>8392</v>
-      </c>
-    </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D161" t="s">
-        <v>457</v>
-      </c>
-      <c r="E161">
-        <v>8399</v>
-      </c>
-    </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D162" t="s">
-        <v>462</v>
-      </c>
-      <c r="E162">
-        <v>8403</v>
-      </c>
-    </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D163" t="s">
-        <v>455</v>
-      </c>
-      <c r="E163">
-        <v>8404</v>
-      </c>
-    </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D164" t="s">
-        <v>456</v>
-      </c>
-      <c r="E164">
-        <v>8524</v>
-      </c>
-    </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D165" t="s">
-        <v>463</v>
-      </c>
-      <c r="E165">
-        <v>8577</v>
-      </c>
-    </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D166" t="s">
-        <v>465</v>
-      </c>
-      <c r="E166">
-        <v>8670</v>
-      </c>
-    </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D167" t="s">
-        <v>483</v>
-      </c>
-      <c r="E167">
-        <v>8393</v>
-      </c>
-    </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D168" t="s">
-        <v>486</v>
-      </c>
-      <c r="E168">
-        <v>8524</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf10023c-c1e1-4ca5-baf6-bad6626b84e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_Flow_SignoffStatus xmlns="cf10023c-c1e1-4ca5-baf6-bad6626b84e9" xsi:nil="true"/>
-    <TaxCatchAll xmlns="40b16217-7e26-4dce-af97-68eaad0f1932" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CD0C5713D8B49840BA44FC47BC25FC9F" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d6c26ebffaa8bbd830e647f783d3198d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf10023c-c1e1-4ca5-baf6-bad6626b84e9" xmlns:ns3="40b16217-7e26-4dce-af97-68eaad0f1932" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f461dd4a85cef57f3309d1104a6214f5" ns2:_="" ns3:_="">
     <xsd:import namespace="cf10023c-c1e1-4ca5-baf6-bad6626b84e9"/>
@@ -9306,10 +7925,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf10023c-c1e1-4ca5-baf6-bad6626b84e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_Flow_SignoffStatus xmlns="cf10023c-c1e1-4ca5-baf6-bad6626b84e9" xsi:nil="true"/>
+    <TaxCatchAll xmlns="40b16217-7e26-4dce-af97-68eaad0f1932" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{172B3EEB-21ED-4F96-BCDA-03252FF4BB1C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5A73F1C-4F4E-45A2-8E7F-3EB53382C2D3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cf10023c-c1e1-4ca5-baf6-bad6626b84e9"/>
+    <ds:schemaRef ds:uri="40b16217-7e26-4dce-af97-68eaad0f1932"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9326,20 +7977,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5A73F1C-4F4E-45A2-8E7F-3EB53382C2D3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{172B3EEB-21ED-4F96-BCDA-03252FF4BB1C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cf10023c-c1e1-4ca5-baf6-bad6626b84e9"/>
-    <ds:schemaRef ds:uri="40b16217-7e26-4dce-af97-68eaad0f1932"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Fleet.xlsx
+++ b/Fleet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qatar Sarens Gulf\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qatar Sarens Gulf\Downloads\#Only for me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1F10E9-C14D-4361-9C11-5D632D3D5E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FAC184-D1B3-4018-9869-4BD29C52DF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB5E0735-E981-4D65-8766-4471E111115C}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Vehicles &amp; others" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vehicles &amp; others'!$A$1:$L$177</definedName>
-    <definedName name="_xlcn.WorksheetConnection_VehiclesothersA1K150" hidden="1">'Vehicles &amp; others'!$A$2:$K$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vehicles &amp; others'!$A$1:$L$175</definedName>
+    <definedName name="_xlcn.WorksheetConnection_VehiclesothersA1K1501" hidden="1">'Vehicles &amp; others'!$A$2:$K$148</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -61,7 +61,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_VehiclesothersA1K150"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_VehiclesothersA1K1501"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="556">
   <si>
     <t>QAIG-AT-18</t>
   </si>
@@ -1684,6 +1684,60 @@
   </si>
   <si>
     <t>PICKUP 3.0 TON</t>
+  </si>
+  <si>
+    <t>HYSTER</t>
+  </si>
+  <si>
+    <t>F-31266</t>
+  </si>
+  <si>
+    <t>F-31267</t>
+  </si>
+  <si>
+    <t>F-7886</t>
+  </si>
+  <si>
+    <t>QAIG-FL-013</t>
+  </si>
+  <si>
+    <t>QAIG-FL-014</t>
+  </si>
+  <si>
+    <t>QAIG-FL-012</t>
+  </si>
+  <si>
+    <t>SR41598</t>
+  </si>
+  <si>
+    <t>SR41256</t>
+  </si>
+  <si>
+    <t>P007E01945W</t>
+  </si>
+  <si>
+    <t>CC0800CE6651</t>
+  </si>
+  <si>
+    <t>L9711305XR3009372</t>
+  </si>
+  <si>
+    <t>L97113059R3008861</t>
+  </si>
+  <si>
+    <t>TRANSFERED  FROM KSA</t>
+  </si>
+  <si>
+    <t>PURCHASED</t>
+  </si>
+  <si>
+    <t>LG30DT (2024)</t>
+  </si>
+  <si>
+    <t>H10XD6 (2022)</t>
+  </si>
+  <si>
+    <t>SCC8000A (2023)</t>
   </si>
 </sst>
 </file>
@@ -1754,7 +1808,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1788,12 +1842,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 3" xfId="1" xr:uid="{C29752E5-8C7E-4504-A590-693493DD2E49}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2145,13 +2215,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6460FE9F-EF3B-4D4D-BCC7-D162649A6FCD}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:M168"/>
+  <dimension ref="A1:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F158" sqref="F158"/>
+      <selection pane="bottomRight" activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2166,7 +2236,7 @@
     <col min="8" max="8" width="37" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="40.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" style="3" customWidth="1"/>
     <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -6859,7 +6929,7 @@
       </c>
       <c r="K144" s="4"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>162</v>
       </c>
@@ -6892,7 +6962,7 @@
       </c>
       <c r="K145" s="4"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>152</v>
       </c>
@@ -6925,7 +6995,7 @@
       </c>
       <c r="K146" s="4"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>152</v>
       </c>
@@ -6942,23 +7012,26 @@
         <v>138</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G147" s="10" t="s">
-        <v>138</v>
+        <v>555</v>
+      </c>
+      <c r="G147" s="10">
+        <v>800</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I147" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J147" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K147" s="4"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J147" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K147" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="M147" s="14"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>152</v>
       </c>
@@ -6991,7 +7064,7 @@
       </c>
       <c r="K148" s="4"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>152</v>
       </c>
@@ -7024,9 +7097,9 @@
       </c>
       <c r="K149" s="4"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>138</v>
@@ -7059,9 +7132,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>138</v>
@@ -7094,7 +7167,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
         <v>152</v>
       </c>
@@ -7126,7 +7199,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>152</v>
       </c>
@@ -7158,7 +7231,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>152</v>
       </c>
@@ -7190,7 +7263,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
         <v>152</v>
       </c>
@@ -7222,7 +7295,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>152</v>
       </c>
@@ -7257,7 +7330,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>152</v>
       </c>
@@ -7292,7 +7365,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>152</v>
       </c>
@@ -7327,7 +7400,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
         <v>152</v>
       </c>
@@ -7362,7 +7435,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>152</v>
       </c>
@@ -7669,6 +7742,111 @@
       </c>
       <c r="K168" s="3" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E169" s="3">
+        <v>79713</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="G169" s="11">
+        <v>3</v>
+      </c>
+      <c r="H169" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K169" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="E170" s="3">
+        <v>79717</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="G170" s="11">
+        <v>3</v>
+      </c>
+      <c r="H170" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K170" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E171" s="3">
+        <v>79684</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="G171" s="11">
+        <v>10</v>
+      </c>
+      <c r="H171" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -7676,14 +7854,17 @@
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="WRwemcA0nyhlBsNJB+ZrdRdmiulp5J6snsQZWL5Ah84Ed5Vozay/STzz6Yal5yBJ6ZZSR7Wbira9Zl6KkC6oHw==" saltValue="VcbLbYiFYBn8Dk3MVK5/Wg==" spinCount="100000" sqref="B106:B112" name="Range1_2"/>
   </protectedRanges>
-  <autoFilter ref="A1:L177" xr:uid="{6460FE9F-EF3B-4D4D-BCC7-D162649A6FCD}"/>
+  <autoFilter ref="A1:L175" xr:uid="{6460FE9F-EF3B-4D4D-BCC7-D162649A6FCD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C154:D168">
     <sortCondition ref="D154:D168"/>
   </sortState>
   <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="H162 C1:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7926,6 +8107,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf10023c-c1e1-4ca5-baf6-bad6626b84e9">
@@ -7935,15 +8125,6 @@
     <TaxCatchAll xmlns="40b16217-7e26-4dce-af97-68eaad0f1932" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7966,6 +8147,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{172B3EEB-21ED-4F96-BCDA-03252FF4BB1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6269017F-E5DB-403C-81C5-BBF155D4F583}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7974,12 +8163,4 @@
     <ds:schemaRef ds:uri="40b16217-7e26-4dce-af97-68eaad0f1932"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{172B3EEB-21ED-4F96-BCDA-03252FF4BB1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Fleet.xlsx
+++ b/Fleet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qatar Sarens Gulf\Downloads\#Only for me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FAC184-D1B3-4018-9869-4BD29C52DF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9AAA03-74E2-48C0-B9F3-EF138CA16844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB5E0735-E981-4D65-8766-4471E111115C}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vehicles &amp; others'!$A$1:$L$175</definedName>
-    <definedName name="_xlcn.WorksheetConnection_VehiclesothersA1K1501" hidden="1">'Vehicles &amp; others'!$A$2:$K$148</definedName>
+    <definedName name="_xlcn.WorksheetConnection_VehiclesothersA1K150" hidden="1">'Vehicles &amp; others'!$A$2:$K$148</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -61,7 +61,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_VehiclesothersA1K1501"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_VehiclesothersA1K150"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="579">
   <si>
     <t>QAIG-AT-18</t>
   </si>
@@ -1738,6 +1738,75 @@
   </si>
   <si>
     <t>SCC8000A (2023)</t>
+  </si>
+  <si>
+    <t>45T</t>
+  </si>
+  <si>
+    <t>300T</t>
+  </si>
+  <si>
+    <t>400T</t>
+  </si>
+  <si>
+    <t>200T</t>
+  </si>
+  <si>
+    <t>100T</t>
+  </si>
+  <si>
+    <t>90T</t>
+  </si>
+  <si>
+    <t>130T</t>
+  </si>
+  <si>
+    <t>500T</t>
+  </si>
+  <si>
+    <t>160T</t>
+  </si>
+  <si>
+    <t>250T</t>
+  </si>
+  <si>
+    <t>180T</t>
+  </si>
+  <si>
+    <t>750T</t>
+  </si>
+  <si>
+    <t>80T</t>
+  </si>
+  <si>
+    <t>600T</t>
+  </si>
+  <si>
+    <t>1250T</t>
+  </si>
+  <si>
+    <t>110T</t>
+  </si>
+  <si>
+    <t>800T</t>
+  </si>
+  <si>
+    <t>650T</t>
+  </si>
+  <si>
+    <t>336T</t>
+  </si>
+  <si>
+    <t>350T</t>
+  </si>
+  <si>
+    <t>60T</t>
+  </si>
+  <si>
+    <t>3T</t>
+  </si>
+  <si>
+    <t>10T</t>
   </si>
 </sst>
 </file>
@@ -2218,10 +2287,10 @@
   <dimension ref="A1:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="F30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F148" sqref="F148"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2295,8 +2364,8 @@
       <c r="F2" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="G2" s="12">
-        <v>45</v>
+      <c r="G2" s="12" t="s">
+        <v>556</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>138</v>
@@ -2327,8 +2396,8 @@
       <c r="F3" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="G3" s="10">
-        <v>300</v>
+      <c r="G3" s="10" t="s">
+        <v>557</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>138</v>
@@ -2359,8 +2428,8 @@
       <c r="F4" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="G4" s="10">
-        <v>400</v>
+      <c r="G4" s="10" t="s">
+        <v>558</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>138</v>
@@ -2391,8 +2460,8 @@
       <c r="F5" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="G5" s="10">
-        <v>200</v>
+      <c r="G5" s="10" t="s">
+        <v>559</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>138</v>
@@ -2423,8 +2492,8 @@
       <c r="F6" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="G6" s="10">
-        <v>100</v>
+      <c r="G6" s="10" t="s">
+        <v>560</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>138</v>
@@ -2455,8 +2524,8 @@
       <c r="F7" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="G7" s="10">
-        <v>45</v>
+      <c r="G7" s="10" t="s">
+        <v>556</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>138</v>
@@ -2487,8 +2556,8 @@
       <c r="F8" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="G8" s="10">
-        <v>90</v>
+      <c r="G8" s="10" t="s">
+        <v>561</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>138</v>
@@ -2519,8 +2588,8 @@
       <c r="F9" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="G9" s="10">
-        <v>130</v>
+      <c r="G9" s="10" t="s">
+        <v>562</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>138</v>
@@ -2551,8 +2620,8 @@
       <c r="F10" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="G10" s="10">
-        <v>90</v>
+      <c r="G10" s="10" t="s">
+        <v>561</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>138</v>
@@ -2583,8 +2652,8 @@
       <c r="F11" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="G11" s="10">
-        <v>500</v>
+      <c r="G11" s="10" t="s">
+        <v>563</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>138</v>
@@ -2615,8 +2684,8 @@
       <c r="F12" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="G12" s="10">
-        <v>90</v>
+      <c r="G12" s="10" t="s">
+        <v>561</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>138</v>
@@ -2647,8 +2716,8 @@
       <c r="F13" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G13" s="10">
-        <v>160</v>
+      <c r="G13" s="10" t="s">
+        <v>564</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>138</v>
@@ -2679,8 +2748,8 @@
       <c r="F14" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="G14" s="10">
-        <v>130</v>
+      <c r="G14" s="10" t="s">
+        <v>562</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>138</v>
@@ -2711,8 +2780,8 @@
       <c r="F15" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="G15" s="10">
-        <v>300</v>
+      <c r="G15" s="10" t="s">
+        <v>557</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>138</v>
@@ -2743,8 +2812,8 @@
       <c r="F16" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G16" s="10">
-        <v>160</v>
+      <c r="G16" s="10" t="s">
+        <v>564</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>138</v>
@@ -2775,8 +2844,8 @@
       <c r="F17" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="G17" s="10">
-        <v>500</v>
+      <c r="G17" s="10" t="s">
+        <v>563</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>138</v>
@@ -2807,8 +2876,8 @@
       <c r="F18" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="G18" s="10">
-        <v>250</v>
+      <c r="G18" s="10" t="s">
+        <v>565</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>138</v>
@@ -2839,8 +2908,8 @@
       <c r="F19" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G19" s="10">
-        <v>180</v>
+      <c r="G19" s="10" t="s">
+        <v>566</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>138</v>
@@ -2871,8 +2940,8 @@
       <c r="F20" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G20" s="10">
-        <v>180</v>
+      <c r="G20" s="10" t="s">
+        <v>566</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>138</v>
@@ -2903,8 +2972,8 @@
       <c r="F21" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="G21" s="10">
-        <v>250</v>
+      <c r="G21" s="10" t="s">
+        <v>565</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>138</v>
@@ -2935,8 +3004,8 @@
       <c r="F22" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="G22" s="10">
-        <v>100</v>
+      <c r="G22" s="10" t="s">
+        <v>560</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>138</v>
@@ -2967,8 +3036,8 @@
       <c r="F23" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G23" s="10">
-        <v>160</v>
+      <c r="G23" s="10" t="s">
+        <v>564</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>138</v>
@@ -2999,8 +3068,8 @@
       <c r="F24" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G24" s="10">
-        <v>160</v>
+      <c r="G24" s="10" t="s">
+        <v>564</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>138</v>
@@ -3031,8 +3100,8 @@
       <c r="F25" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G25" s="10">
-        <v>160</v>
+      <c r="G25" s="10" t="s">
+        <v>564</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>138</v>
@@ -3063,8 +3132,8 @@
       <c r="F26" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G26" s="10">
-        <v>160</v>
+      <c r="G26" s="10" t="s">
+        <v>564</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>138</v>
@@ -3095,8 +3164,8 @@
       <c r="F27" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G27" s="10">
-        <v>160</v>
+      <c r="G27" s="10" t="s">
+        <v>564</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>138</v>
@@ -3127,8 +3196,8 @@
       <c r="F28" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="G28" s="10">
-        <v>200</v>
+      <c r="G28" s="10" t="s">
+        <v>559</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>138</v>
@@ -3159,8 +3228,8 @@
       <c r="F29" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="G29" s="10">
-        <v>750</v>
+      <c r="G29" s="10" t="s">
+        <v>567</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>138</v>
@@ -3191,8 +3260,8 @@
       <c r="F30" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="G30" s="10">
-        <v>100</v>
+      <c r="G30" s="10" t="s">
+        <v>560</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>138</v>
@@ -3223,8 +3292,8 @@
       <c r="F31" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="G31" s="10">
-        <v>80</v>
+      <c r="G31" s="10" t="s">
+        <v>568</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>138</v>
@@ -3255,8 +3324,8 @@
       <c r="F32" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="G32" s="10">
-        <v>80</v>
+      <c r="G32" s="10" t="s">
+        <v>568</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>138</v>
@@ -3287,8 +3356,8 @@
       <c r="F33" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="G33" s="10">
-        <v>80</v>
+      <c r="G33" s="10" t="s">
+        <v>568</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>138</v>
@@ -3319,8 +3388,8 @@
       <c r="F34" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="G34" s="10">
-        <v>80</v>
+      <c r="G34" s="10" t="s">
+        <v>568</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>138</v>
@@ -3351,8 +3420,8 @@
       <c r="F35" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="G35" s="10">
-        <v>600</v>
+      <c r="G35" s="10" t="s">
+        <v>569</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>138</v>
@@ -3383,8 +3452,8 @@
       <c r="F36" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="G36" s="10">
-        <v>80</v>
+      <c r="G36" s="10" t="s">
+        <v>568</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>138</v>
@@ -3415,8 +3484,8 @@
       <c r="F37" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="G37" s="10">
-        <v>80</v>
+      <c r="G37" s="10" t="s">
+        <v>568</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>138</v>
@@ -3447,8 +3516,8 @@
       <c r="F38" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="G38" s="10">
-        <v>80</v>
+      <c r="G38" s="10" t="s">
+        <v>568</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>138</v>
@@ -3479,8 +3548,8 @@
       <c r="F39" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="G39" s="10">
-        <v>80</v>
+      <c r="G39" s="10" t="s">
+        <v>568</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>138</v>
@@ -3511,8 +3580,8 @@
       <c r="F40" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="G40" s="10">
-        <v>100</v>
+      <c r="G40" s="10" t="s">
+        <v>560</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>138</v>
@@ -3543,8 +3612,8 @@
       <c r="F41" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="G41" s="10">
-        <v>90</v>
+      <c r="G41" s="10" t="s">
+        <v>561</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>138</v>
@@ -3575,8 +3644,8 @@
       <c r="F42" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="G42" s="10">
-        <v>90</v>
+      <c r="G42" s="10" t="s">
+        <v>561</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>138</v>
@@ -3607,8 +3676,8 @@
       <c r="F43" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="G43" s="10">
-        <v>130</v>
+      <c r="G43" s="10" t="s">
+        <v>562</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>138</v>
@@ -3639,8 +3708,8 @@
       <c r="F44" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="G44" s="10">
-        <v>160</v>
+      <c r="G44" s="10" t="s">
+        <v>564</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>138</v>
@@ -3671,8 +3740,8 @@
       <c r="F45" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="G45" s="10">
-        <v>160</v>
+      <c r="G45" s="10" t="s">
+        <v>564</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>138</v>
@@ -3703,8 +3772,8 @@
       <c r="F46" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="G46" s="10">
-        <v>160</v>
+      <c r="G46" s="10" t="s">
+        <v>564</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>138</v>
@@ -3735,8 +3804,8 @@
       <c r="F47" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="G47" s="10">
-        <v>80</v>
+      <c r="G47" s="10" t="s">
+        <v>568</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>138</v>
@@ -3767,8 +3836,8 @@
       <c r="F48" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="G48" s="10">
-        <v>80</v>
+      <c r="G48" s="10" t="s">
+        <v>568</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>138</v>
@@ -3799,8 +3868,8 @@
       <c r="F49" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="G49" s="10">
-        <v>80</v>
+      <c r="G49" s="10" t="s">
+        <v>568</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>138</v>
@@ -3831,8 +3900,8 @@
       <c r="F50" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="G50" s="10">
-        <v>80</v>
+      <c r="G50" s="10" t="s">
+        <v>568</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>138</v>
@@ -3863,8 +3932,8 @@
       <c r="F51" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="G51" s="10">
-        <v>80</v>
+      <c r="G51" s="10" t="s">
+        <v>568</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>138</v>
@@ -3895,8 +3964,8 @@
       <c r="F52" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="G52" s="10">
-        <v>1250</v>
+      <c r="G52" s="10" t="s">
+        <v>570</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>138</v>
@@ -3927,8 +3996,8 @@
       <c r="F53" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="G53" s="10">
-        <v>110</v>
+      <c r="G53" s="10" t="s">
+        <v>571</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>138</v>
@@ -3959,8 +4028,8 @@
       <c r="F54" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="G54" s="10">
-        <v>110</v>
+      <c r="G54" s="10" t="s">
+        <v>571</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>138</v>
@@ -3991,8 +4060,8 @@
       <c r="F55" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="G55" s="10">
-        <v>110</v>
+      <c r="G55" s="10" t="s">
+        <v>571</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>138</v>
@@ -4023,8 +4092,8 @@
       <c r="F56" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="G56" s="10">
-        <v>110</v>
+      <c r="G56" s="10" t="s">
+        <v>571</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>138</v>
@@ -4055,8 +4124,8 @@
       <c r="F57" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="G57" s="10">
-        <v>110</v>
+      <c r="G57" s="10" t="s">
+        <v>571</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>138</v>
@@ -4087,8 +4156,8 @@
       <c r="F58" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="G58" s="10">
-        <v>110</v>
+      <c r="G58" s="10" t="s">
+        <v>571</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>138</v>
@@ -4119,8 +4188,8 @@
       <c r="F59" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="G59" s="10">
-        <v>110</v>
+      <c r="G59" s="10" t="s">
+        <v>571</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>138</v>
@@ -4151,8 +4220,8 @@
       <c r="F60" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="G60" s="10">
-        <v>160</v>
+      <c r="G60" s="10" t="s">
+        <v>564</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>138</v>
@@ -4183,8 +4252,8 @@
       <c r="F61" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="G61" s="10">
-        <v>160</v>
+      <c r="G61" s="10" t="s">
+        <v>564</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>138</v>
@@ -4215,8 +4284,8 @@
       <c r="F62" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="G62" s="10">
-        <v>160</v>
+      <c r="G62" s="10" t="s">
+        <v>564</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>138</v>
@@ -4247,8 +4316,8 @@
       <c r="F63" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="G63" s="10">
-        <v>160</v>
+      <c r="G63" s="10" t="s">
+        <v>564</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>138</v>
@@ -4279,8 +4348,8 @@
       <c r="F64" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="G64" s="10">
-        <v>160</v>
+      <c r="G64" s="10" t="s">
+        <v>564</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>138</v>
@@ -4311,8 +4380,8 @@
       <c r="F65" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="G65" s="10">
-        <v>800</v>
+      <c r="G65" s="10" t="s">
+        <v>572</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>138</v>
@@ -4344,8 +4413,8 @@
       <c r="F66" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="G66" s="10">
-        <v>650</v>
+      <c r="G66" s="10" t="s">
+        <v>573</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>138</v>
@@ -4376,8 +4445,8 @@
       <c r="F67" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="G67" s="10">
-        <v>650</v>
+      <c r="G67" s="10" t="s">
+        <v>573</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>138</v>
@@ -4442,8 +4511,8 @@
       <c r="F69" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="G69" s="10">
-        <v>336</v>
+      <c r="G69" s="10" t="s">
+        <v>574</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>357</v>
@@ -4640,8 +4709,8 @@
       <c r="F75" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="G75" s="10">
-        <v>336</v>
+      <c r="G75" s="10" t="s">
+        <v>574</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>363</v>
@@ -7014,8 +7083,8 @@
       <c r="F147" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="G147" s="10">
-        <v>800</v>
+      <c r="G147" s="10" t="s">
+        <v>572</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>548</v>
@@ -7186,8 +7255,8 @@
       <c r="F152" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="G152" s="11">
-        <v>350</v>
+      <c r="G152" s="11" t="s">
+        <v>575</v>
       </c>
       <c r="H152" s="9" t="s">
         <v>138</v>
@@ -7218,8 +7287,8 @@
       <c r="F153" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="G153" s="11">
-        <v>60</v>
+      <c r="G153" s="11" t="s">
+        <v>576</v>
       </c>
       <c r="H153" s="9" t="s">
         <v>138</v>
@@ -7250,8 +7319,8 @@
       <c r="F154" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="G154" s="11">
-        <v>60</v>
+      <c r="G154" s="11" t="s">
+        <v>576</v>
       </c>
       <c r="H154" s="9" t="s">
         <v>138</v>
@@ -7282,8 +7351,8 @@
       <c r="F155" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="G155" s="11">
-        <v>60</v>
+      <c r="G155" s="11" t="s">
+        <v>576</v>
       </c>
       <c r="H155" s="9" t="s">
         <v>138</v>
@@ -7594,8 +7663,8 @@
       <c r="F164" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="G164" s="11">
-        <v>160</v>
+      <c r="G164" s="11" t="s">
+        <v>564</v>
       </c>
       <c r="H164" s="9" t="s">
         <v>138</v>
@@ -7626,8 +7695,8 @@
       <c r="F165" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="G165" s="11">
-        <v>160</v>
+      <c r="G165" s="11" t="s">
+        <v>564</v>
       </c>
       <c r="H165" s="9" t="s">
         <v>138</v>
@@ -7763,8 +7832,8 @@
       <c r="F169" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="G169" s="11">
-        <v>3</v>
+      <c r="G169" s="11" t="s">
+        <v>577</v>
       </c>
       <c r="H169" s="9" t="s">
         <v>545</v>
@@ -7798,8 +7867,8 @@
       <c r="F170" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="G170" s="11">
-        <v>3</v>
+      <c r="G170" s="11" t="s">
+        <v>577</v>
       </c>
       <c r="H170" s="9" t="s">
         <v>546</v>
@@ -7833,8 +7902,8 @@
       <c r="F171" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="G171" s="11">
-        <v>10</v>
+      <c r="G171" s="11" t="s">
+        <v>578</v>
       </c>
       <c r="H171" s="9" t="s">
         <v>547</v>
@@ -7872,6 +7941,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf10023c-c1e1-4ca5-baf6-bad6626b84e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_Flow_SignoffStatus xmlns="cf10023c-c1e1-4ca5-baf6-bad6626b84e9" xsi:nil="true"/>
+    <TaxCatchAll xmlns="40b16217-7e26-4dce-af97-68eaad0f1932" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CD0C5713D8B49840BA44FC47BC25FC9F" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d6c26ebffaa8bbd830e647f783d3198d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf10023c-c1e1-4ca5-baf6-bad6626b84e9" xmlns:ns3="40b16217-7e26-4dce-af97-68eaad0f1932" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f461dd4a85cef57f3309d1104a6214f5" ns2:_="" ns3:_="">
     <xsd:import namespace="cf10023c-c1e1-4ca5-baf6-bad6626b84e9"/>
@@ -8106,28 +8196,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6269017F-E5DB-403C-81C5-BBF155D4F583}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cf10023c-c1e1-4ca5-baf6-bad6626b84e9"/>
+    <ds:schemaRef ds:uri="40b16217-7e26-4dce-af97-68eaad0f1932"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf10023c-c1e1-4ca5-baf6-bad6626b84e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_Flow_SignoffStatus xmlns="cf10023c-c1e1-4ca5-baf6-bad6626b84e9" xsi:nil="true"/>
-    <TaxCatchAll xmlns="40b16217-7e26-4dce-af97-68eaad0f1932" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{172B3EEB-21ED-4F96-BCDA-03252FF4BB1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5A73F1C-4F4E-45A2-8E7F-3EB53382C2D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8144,23 +8232,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{172B3EEB-21ED-4F96-BCDA-03252FF4BB1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6269017F-E5DB-403C-81C5-BBF155D4F583}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cf10023c-c1e1-4ca5-baf6-bad6626b84e9"/>
-    <ds:schemaRef ds:uri="40b16217-7e26-4dce-af97-68eaad0f1932"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Fleet.xlsx
+++ b/Fleet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qatar Sarens Gulf\Downloads\#Only for me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9AAA03-74E2-48C0-B9F3-EF138CA16844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB6E16F-80CB-4952-A019-2AD2DE16E088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB5E0735-E981-4D65-8766-4471E111115C}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vehicles &amp; others'!$A$1:$L$175</definedName>
-    <definedName name="_xlcn.WorksheetConnection_VehiclesothersA1K150" hidden="1">'Vehicles &amp; others'!$A$2:$K$148</definedName>
+    <definedName name="_xlcn.WorksheetConnection_VehiclesothersA1K1501" hidden="1">'Vehicles &amp; others'!$A$2:$K$148</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -61,7 +61,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_VehiclesothersA1K150"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_VehiclesothersA1K1501"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="578">
   <si>
     <t>QAIG-AT-18</t>
   </si>
@@ -1095,18 +1095,12 @@
     <t>FORTUNER-V6</t>
   </si>
   <si>
-    <t>3-TON-PIK-UP</t>
-  </si>
-  <si>
     <t>TIIDA</t>
   </si>
   <si>
     <t>PRADO</t>
   </si>
   <si>
-    <t>SERVICE-TRUCK-CANTER</t>
-  </si>
-  <si>
     <t>PICK-UP</t>
   </si>
   <si>
@@ -1635,9 +1629,6 @@
     <t>6 Lines</t>
   </si>
   <si>
-    <t>3 TON PICK-UP</t>
-  </si>
-  <si>
     <t>FMX460</t>
   </si>
   <si>
@@ -1683,9 +1674,6 @@
     <t>FORKLIFT</t>
   </si>
   <si>
-    <t>PICKUP 3.0 TON</t>
-  </si>
-  <si>
     <t>HYSTER</t>
   </si>
   <si>
@@ -1807,6 +1795,15 @@
   </si>
   <si>
     <t>10T</t>
+  </si>
+  <si>
+    <t>3.0 TON PICKUP-CANTER</t>
+  </si>
+  <si>
+    <t>PICKUP TRUCK-CANTER 3.0 Ton</t>
+  </si>
+  <si>
+    <t>3.0 TON SERVICE-TRUCK-CANTER</t>
   </si>
 </sst>
 </file>
@@ -2287,15 +2284,15 @@
   <dimension ref="A1:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="F30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="F93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" style="9" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -2350,7 +2347,7 @@
         <v>152</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>186</v>
@@ -2362,10 +2359,10 @@
         <v>15863</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>138</v>
@@ -2374,7 +2371,7 @@
         <v>53395</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2382,7 +2379,7 @@
         <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>187</v>
@@ -2394,10 +2391,10 @@
         <v>23606</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>138</v>
@@ -2406,7 +2403,7 @@
         <v>55085</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2426,10 +2423,10 @@
         <v>25873</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>138</v>
@@ -2438,7 +2435,7 @@
         <v>15104</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2458,10 +2455,10 @@
         <v>59920</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>138</v>
@@ -2470,7 +2467,7 @@
         <v>135047</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2478,7 +2475,7 @@
         <v>152</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>190</v>
@@ -2490,10 +2487,10 @@
         <v>27491</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>138</v>
@@ -2502,7 +2499,7 @@
         <v>133080</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2510,7 +2507,7 @@
         <v>152</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>191</v>
@@ -2522,10 +2519,10 @@
         <v>27509</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>138</v>
@@ -2534,7 +2531,7 @@
         <v>53656</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2542,7 +2539,7 @@
         <v>152</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>192</v>
@@ -2554,10 +2551,10 @@
         <v>4438</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>138</v>
@@ -2566,7 +2563,7 @@
         <v>61982</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2574,7 +2571,7 @@
         <v>152</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>193</v>
@@ -2586,10 +2583,10 @@
         <v>48656</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>138</v>
@@ -2598,7 +2595,7 @@
         <v>137072</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2606,7 +2603,7 @@
         <v>152</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>194</v>
@@ -2618,10 +2615,10 @@
         <v>29797</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>138</v>
@@ -2630,7 +2627,7 @@
         <v>61955</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2638,7 +2635,7 @@
         <v>152</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>195</v>
@@ -2650,10 +2647,10 @@
         <v>31478</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>138</v>
@@ -2662,7 +2659,7 @@
         <v>73193</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2670,7 +2667,7 @@
         <v>152</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>196</v>
@@ -2682,19 +2679,19 @@
         <v>33379</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2702,7 +2699,7 @@
         <v>152</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>197</v>
@@ -2714,10 +2711,10 @@
         <v>50243</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>138</v>
@@ -2726,7 +2723,7 @@
         <v>67533</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2734,7 +2731,7 @@
         <v>152</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>198</v>
@@ -2746,10 +2743,10 @@
         <v>51734</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>138</v>
@@ -2758,7 +2755,7 @@
         <v>137050</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2766,7 +2763,7 @@
         <v>152</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>199</v>
@@ -2778,10 +2775,10 @@
         <v>53379</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>138</v>
@@ -2790,7 +2787,7 @@
         <v>138196</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2798,7 +2795,7 @@
         <v>152</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>200</v>
@@ -2810,10 +2807,10 @@
         <v>52658</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>138</v>
@@ -2822,7 +2819,7 @@
         <v>67306</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2830,7 +2827,7 @@
         <v>152</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>201</v>
@@ -2842,10 +2839,10 @@
         <v>53076</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>138</v>
@@ -2854,7 +2851,7 @@
         <v>73379</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2862,7 +2859,7 @@
         <v>152</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>202</v>
@@ -2874,10 +2871,10 @@
         <v>53346</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>138</v>
@@ -2886,7 +2883,7 @@
         <v>135154</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2894,7 +2891,7 @@
         <v>152</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>203</v>
@@ -2909,7 +2906,7 @@
         <v>329</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>138</v>
@@ -2918,7 +2915,7 @@
         <v>55005199</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2926,7 +2923,7 @@
         <v>152</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>204</v>
@@ -2941,7 +2938,7 @@
         <v>329</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>138</v>
@@ -2950,7 +2947,7 @@
         <v>55005197</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2958,7 +2955,7 @@
         <v>152</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>205</v>
@@ -2970,10 +2967,10 @@
         <v>55225</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>138</v>
@@ -2982,7 +2979,7 @@
         <v>46014</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2990,7 +2987,7 @@
         <v>152</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>206</v>
@@ -3002,10 +2999,10 @@
         <v>58256</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>138</v>
@@ -3014,7 +3011,7 @@
         <v>45087</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -3022,7 +3019,7 @@
         <v>152</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>207</v>
@@ -3034,10 +3031,10 @@
         <v>58281</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>138</v>
@@ -3046,7 +3043,7 @@
         <v>45432</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -3054,7 +3051,7 @@
         <v>152</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>208</v>
@@ -3066,10 +3063,10 @@
         <v>15315</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>138</v>
@@ -3078,7 +3075,7 @@
         <v>45433</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -3086,7 +3083,7 @@
         <v>152</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>209</v>
@@ -3098,10 +3095,10 @@
         <v>26381</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>138</v>
@@ -3110,7 +3107,7 @@
         <v>45448</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -3118,7 +3115,7 @@
         <v>152</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>210</v>
@@ -3130,10 +3127,10 @@
         <v>26121</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>138</v>
@@ -3142,7 +3139,7 @@
         <v>45449</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -3150,7 +3147,7 @@
         <v>152</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>211</v>
@@ -3162,10 +3159,10 @@
         <v>26471</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>138</v>
@@ -3174,7 +3171,7 @@
         <v>45452</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -3182,7 +3179,7 @@
         <v>152</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>212</v>
@@ -3194,10 +3191,10 @@
         <v>59918</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>138</v>
@@ -3206,7 +3203,7 @@
         <v>135044</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -3226,10 +3223,10 @@
         <v>46743</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>138</v>
@@ -3238,7 +3235,7 @@
         <v>74746</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -3246,7 +3243,7 @@
         <v>152</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>214</v>
@@ -3258,10 +3255,10 @@
         <v>38080</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>138</v>
@@ -3270,7 +3267,7 @@
         <v>10129</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -3278,7 +3275,7 @@
         <v>152</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>215</v>
@@ -3290,10 +3287,10 @@
         <v>34881</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>138</v>
@@ -3302,7 +3299,7 @@
         <v>549566</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -3310,7 +3307,7 @@
         <v>152</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>216</v>
@@ -3322,10 +3319,10 @@
         <v>34896</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>138</v>
@@ -3334,7 +3331,7 @@
         <v>549568</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -3342,7 +3339,7 @@
         <v>152</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>217</v>
@@ -3354,10 +3351,10 @@
         <v>42161</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>138</v>
@@ -3366,7 +3363,7 @@
         <v>549753</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -3374,7 +3371,7 @@
         <v>152</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>218</v>
@@ -3386,10 +3383,10 @@
         <v>44693</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>138</v>
@@ -3398,7 +3395,7 @@
         <v>549754</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -3406,7 +3403,7 @@
         <v>152</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>219</v>
@@ -3418,10 +3415,10 @@
         <v>67837</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>138</v>
@@ -3430,7 +3427,7 @@
         <v>62274</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -3450,10 +3447,10 @@
         <v>69916</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>138</v>
@@ -3462,7 +3459,7 @@
         <v>549840</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -3482,10 +3479,10 @@
         <v>69920</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>138</v>
@@ -3494,7 +3491,7 @@
         <v>549839</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -3514,10 +3511,10 @@
         <v>69917</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>138</v>
@@ -3526,7 +3523,7 @@
         <v>549877</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -3546,10 +3543,10 @@
         <v>69921</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>138</v>
@@ -3558,7 +3555,7 @@
         <v>549861</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -3566,7 +3563,7 @@
         <v>152</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>224</v>
@@ -3578,10 +3575,10 @@
         <v>75547</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>138</v>
@@ -3590,7 +3587,7 @@
         <v>10127</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -3610,10 +3607,10 @@
         <v>76410</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>138</v>
@@ -3622,7 +3619,7 @@
         <v>62059</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -3642,10 +3639,10 @@
         <v>76409</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>138</v>
@@ -3654,7 +3651,7 @@
         <v>62022</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -3674,10 +3671,10 @@
         <v>76561</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>138</v>
@@ -3686,7 +3683,7 @@
         <v>35321</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -3706,19 +3703,19 @@
         <v>76599</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -3738,19 +3735,19 @@
         <v>76597</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -3770,19 +3767,19 @@
         <v>76598</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -3802,19 +3799,19 @@
         <v>76631</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -3834,19 +3831,19 @@
         <v>76609</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -3866,19 +3863,19 @@
         <v>76630</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -3898,19 +3895,19 @@
         <v>76600</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3930,19 +3927,19 @@
         <v>76608</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3962,19 +3959,19 @@
         <v>326</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3994,19 +3991,19 @@
         <v>76894</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -4026,19 +4023,19 @@
         <v>76893</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -4058,19 +4055,19 @@
         <v>76905</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -4090,19 +4087,19 @@
         <v>76900</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -4122,19 +4119,19 @@
         <v>76909</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -4154,19 +4151,19 @@
         <v>76904</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -4186,19 +4183,19 @@
         <v>76903</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -4218,19 +4215,19 @@
         <v>76892</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -4250,19 +4247,19 @@
         <v>76898</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -4282,19 +4279,19 @@
         <v>76908</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -4314,19 +4311,19 @@
         <v>76906</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -4346,19 +4343,19 @@
         <v>76897</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4378,19 +4375,19 @@
         <v>78203</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K65" s="4"/>
     </row>
@@ -4411,10 +4408,10 @@
         <v>327</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>138</v>
@@ -4423,7 +4420,7 @@
         <v>138</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4443,10 +4440,10 @@
         <v>79000</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>138</v>
@@ -4455,7 +4452,7 @@
         <v>138</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K67" s="4"/>
     </row>
@@ -4464,7 +4461,7 @@
         <v>152</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>252</v>
@@ -4494,7 +4491,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>167</v>
@@ -4509,25 +4506,25 @@
         <v>32399</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K69" s="2"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>167</v>
@@ -4542,13 +4539,13 @@
         <v>138</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>138</v>
@@ -4560,7 +4557,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>167</v>
@@ -4575,13 +4572,13 @@
         <v>138</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G71" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>138</v>
@@ -4593,7 +4590,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>167</v>
@@ -4608,25 +4605,25 @@
         <v>38138</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G72" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K72" s="2"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>167</v>
@@ -4641,13 +4638,13 @@
         <v>138</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G73" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>138</v>
@@ -4659,7 +4656,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>167</v>
@@ -4674,13 +4671,13 @@
         <v>138</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G74" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>138</v>
@@ -4692,7 +4689,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>167</v>
@@ -4707,25 +4704,25 @@
         <v>21107</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K75" s="2"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>167</v>
@@ -4740,13 +4737,13 @@
         <v>138</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>138</v>
@@ -4758,7 +4755,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>167</v>
@@ -4773,25 +4770,25 @@
         <v>36530</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K77" s="2"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>167</v>
@@ -4806,13 +4803,13 @@
         <v>138</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G78" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>138</v>
@@ -4824,7 +4821,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>167</v>
@@ -4839,13 +4836,13 @@
         <v>138</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>138</v>
@@ -4857,7 +4854,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>167</v>
@@ -4872,13 +4869,13 @@
         <v>138</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G80" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>138</v>
@@ -4890,7 +4887,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>168</v>
@@ -4923,7 +4920,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>168</v>
@@ -4950,13 +4947,13 @@
         <v>138</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K82" s="2"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>168</v>
@@ -4983,13 +4980,13 @@
         <v>138</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K83" s="2"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>168</v>
@@ -5016,13 +5013,13 @@
         <v>138</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K84" s="2"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>169</v>
@@ -5043,19 +5040,19 @@
         <v>138</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I85" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K85" s="5"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>169</v>
@@ -5076,19 +5073,19 @@
         <v>138</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K86" s="5"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>170</v>
@@ -5109,13 +5106,13 @@
         <v>138</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I87" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K87" s="5"/>
     </row>
@@ -5148,7 +5145,7 @@
         <v>138</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K88" s="5"/>
     </row>
@@ -5175,13 +5172,13 @@
         <v>138</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K89" s="5"/>
     </row>
@@ -5208,13 +5205,13 @@
         <v>138</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I90" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K90" s="5"/>
     </row>
@@ -5241,13 +5238,13 @@
         <v>138</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K91" s="5"/>
     </row>
@@ -5274,13 +5271,13 @@
         <v>138</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I92" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K92" s="5"/>
     </row>
@@ -5307,13 +5304,13 @@
         <v>138</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I93" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K93" s="5"/>
     </row>
@@ -5340,13 +5337,13 @@
         <v>138</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K94" s="5"/>
     </row>
@@ -5373,13 +5370,13 @@
         <v>138</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I95" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K95" s="5"/>
     </row>
@@ -5406,13 +5403,13 @@
         <v>138</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I96" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K96" s="5"/>
     </row>
@@ -5439,13 +5436,13 @@
         <v>138</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I97" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K97" s="5"/>
     </row>
@@ -5472,19 +5469,19 @@
         <v>138</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I98" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K98" s="5"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>537</v>
+        <v>576</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>174</v>
@@ -5499,19 +5496,19 @@
         <v>255436</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>521</v>
+        <v>575</v>
       </c>
       <c r="G99" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I99" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K99" s="5"/>
     </row>
@@ -5532,19 +5529,19 @@
         <v>526292</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G100" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K100" s="5"/>
     </row>
@@ -5565,19 +5562,19 @@
         <v>526291</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G101" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K101" s="5"/>
     </row>
@@ -5598,25 +5595,25 @@
         <v>541871</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G102" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K102" s="5"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>159</v>
+        <v>576</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>176</v>
@@ -5631,25 +5628,25 @@
         <v>264508</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>344</v>
+        <v>577</v>
       </c>
       <c r="G103" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I103" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K103" s="5"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>159</v>
+        <v>576</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>176</v>
@@ -5664,19 +5661,19 @@
         <v>264507</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>344</v>
+        <v>577</v>
       </c>
       <c r="G104" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K104" s="5"/>
     </row>
@@ -5697,19 +5694,19 @@
         <v>367309</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G105" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K105" s="5"/>
     </row>
@@ -5730,19 +5727,19 @@
         <v>336639</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G106" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K106" s="5"/>
     </row>
@@ -5763,19 +5760,19 @@
         <v>336640</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G107" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K107" s="5"/>
     </row>
@@ -5796,19 +5793,19 @@
         <v>336645</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G108" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K108" s="5"/>
     </row>
@@ -5829,19 +5826,19 @@
         <v>336642</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G109" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K109" s="5"/>
     </row>
@@ -5862,19 +5859,19 @@
         <v>336647</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G110" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K110" s="5"/>
     </row>
@@ -5895,25 +5892,25 @@
         <v>336641</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G111" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I111" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K111" s="5"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>537</v>
+        <v>576</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>176</v>
@@ -5928,19 +5925,19 @@
         <v>336992</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>341</v>
+        <v>575</v>
       </c>
       <c r="G112" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I112" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K112" s="5"/>
     </row>
@@ -5961,13 +5958,13 @@
         <v>328</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G113" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I113" s="3" t="s">
         <v>138</v>
@@ -5993,13 +5990,13 @@
         <v>328</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G114" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I114" s="3" t="s">
         <v>138</v>
@@ -6025,19 +6022,19 @@
         <v>103761</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G115" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K115" s="4"/>
     </row>
@@ -6058,19 +6055,19 @@
         <v>103824</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G116" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K116" s="4"/>
     </row>
@@ -6091,19 +6088,19 @@
         <v>269554</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G117" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K117" s="4"/>
     </row>
@@ -6124,19 +6121,19 @@
         <v>269552</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G118" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I118" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K118" s="4"/>
     </row>
@@ -6157,19 +6154,19 @@
         <v>68448</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G119" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I119" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K119" s="4"/>
     </row>
@@ -6190,19 +6187,19 @@
         <v>68472</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G120" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I120" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K120" s="4"/>
     </row>
@@ -6223,19 +6220,19 @@
         <v>208968</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G121" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I121" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K121" s="4"/>
     </row>
@@ -6256,19 +6253,19 @@
         <v>208894</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G122" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I122" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K122" s="4"/>
     </row>
@@ -6289,19 +6286,19 @@
         <v>49505</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G123" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I123" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K123" s="4"/>
     </row>
@@ -6322,19 +6319,19 @@
         <v>202215</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G124" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I124" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K124" s="4"/>
     </row>
@@ -6355,19 +6352,19 @@
         <v>184165</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G125" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I125" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K125" s="4"/>
     </row>
@@ -6388,19 +6385,19 @@
         <v>189506</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G126" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I126" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K126" s="4"/>
     </row>
@@ -6421,19 +6418,19 @@
         <v>35816</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G127" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I127" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K127" s="4"/>
     </row>
@@ -6454,19 +6451,19 @@
         <v>298474</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G128" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I128" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K128" s="4"/>
     </row>
@@ -6487,19 +6484,19 @@
         <v>294242</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G129" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I129" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K129" s="4"/>
     </row>
@@ -6520,19 +6517,19 @@
         <v>298958</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G130" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I130" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K130" s="4"/>
     </row>
@@ -6553,19 +6550,19 @@
         <v>49080</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G131" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I131" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K131" s="4"/>
     </row>
@@ -6586,19 +6583,19 @@
         <v>49081</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G132" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I132" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K132" s="4"/>
     </row>
@@ -6619,19 +6616,19 @@
         <v>49082</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G133" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I133" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K133" s="4"/>
     </row>
@@ -6652,19 +6649,19 @@
         <v>49034</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G134" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I134" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K134" s="4"/>
     </row>
@@ -6685,19 +6682,19 @@
         <v>48569</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G135" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I135" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K135" s="4"/>
     </row>
@@ -6718,19 +6715,19 @@
         <v>48568</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G136" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I136" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K136" s="4"/>
     </row>
@@ -6751,19 +6748,19 @@
         <v>48578</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G137" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I137" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K137" s="4"/>
     </row>
@@ -6784,19 +6781,19 @@
         <v>48579</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G138" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I138" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K138" s="4"/>
     </row>
@@ -6817,19 +6814,19 @@
         <v>22088</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G139" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I139" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K139" s="4"/>
     </row>
@@ -6850,19 +6847,19 @@
         <v>41903</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G140" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I140" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K140" s="4"/>
     </row>
@@ -6883,19 +6880,19 @@
         <v>41913</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G141" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I141" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K141" s="4"/>
     </row>
@@ -6916,19 +6913,19 @@
         <v>12235</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G142" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I142" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K142" s="4"/>
     </row>
@@ -6949,19 +6946,19 @@
         <v>22651</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G143" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I143" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K143" s="4"/>
     </row>
@@ -6982,19 +6979,19 @@
         <v>36021</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G144" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I144" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K144" s="4"/>
     </row>
@@ -7015,19 +7012,19 @@
         <v>36022</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G145" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I145" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K145" s="4"/>
     </row>
@@ -7036,7 +7033,7 @@
         <v>152</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>322</v>
@@ -7081,13 +7078,13 @@
         <v>138</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G147" s="10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="I147" s="2" t="s">
         <v>138</v>
@@ -7096,7 +7093,7 @@
         <v>138</v>
       </c>
       <c r="K147" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="M147" s="14"/>
     </row>
@@ -7105,7 +7102,7 @@
         <v>152</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>324</v>
@@ -7174,10 +7171,10 @@
         <v>138</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>138</v>
@@ -7209,10 +7206,10 @@
         <v>138</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>138</v>
@@ -7241,22 +7238,22 @@
         <v>152</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>138</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="H152" s="9" t="s">
         <v>138</v>
@@ -7273,22 +7270,22 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C153" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D153" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="D153" s="3" t="s">
-        <v>473</v>
-      </c>
       <c r="E153" s="3" t="s">
         <v>138</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G153" s="11" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H153" s="9" t="s">
         <v>138</v>
@@ -7305,22 +7302,22 @@
         <v>152</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>138</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H154" s="9" t="s">
         <v>138</v>
@@ -7337,22 +7334,22 @@
         <v>152</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>138</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G155" s="11" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H155" s="9" t="s">
         <v>138</v>
@@ -7372,10 +7369,10 @@
         <v>138</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>138</v>
@@ -7407,10 +7404,10 @@
         <v>138</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>138</v>
@@ -7442,10 +7439,10 @@
         <v>138</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>138</v>
@@ -7477,10 +7474,10 @@
         <v>138</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>138</v>
@@ -7509,13 +7506,13 @@
         <v>152</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>138</v>
@@ -7547,10 +7544,10 @@
         <v>138</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>138</v>
@@ -7582,10 +7579,10 @@
         <v>138</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>138</v>
@@ -7617,10 +7614,10 @@
         <v>138</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>138</v>
@@ -7649,22 +7646,22 @@
         <v>152</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>138</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G164" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H164" s="9" t="s">
         <v>138</v>
@@ -7681,22 +7678,22 @@
         <v>152</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>138</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G165" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H165" s="9" t="s">
         <v>138</v>
@@ -7716,10 +7713,10 @@
         <v>138</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>138</v>
@@ -7751,10 +7748,10 @@
         <v>138</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>138</v>
@@ -7786,10 +7783,10 @@
         <v>138</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>138</v>
@@ -7815,107 +7812,107 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E169" s="3">
         <v>79713</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G169" s="11" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="H169" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="I169" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="I169" s="3" t="s">
-        <v>549</v>
-      </c>
       <c r="J169" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E170" s="3">
         <v>79717</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G170" s="11" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="H170" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="I170" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="I170" s="3" t="s">
-        <v>550</v>
-      </c>
       <c r="J170" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E171" s="3">
         <v>79684</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G171" s="11" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="H171" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K171" s="3" t="s">
         <v>547</v>
-      </c>
-      <c r="I171" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J171" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K171" s="3" t="s">
-        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -7941,27 +7938,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf10023c-c1e1-4ca5-baf6-bad6626b84e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_Flow_SignoffStatus xmlns="cf10023c-c1e1-4ca5-baf6-bad6626b84e9" xsi:nil="true"/>
-    <TaxCatchAll xmlns="40b16217-7e26-4dce-af97-68eaad0f1932" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CD0C5713D8B49840BA44FC47BC25FC9F" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d6c26ebffaa8bbd830e647f783d3198d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf10023c-c1e1-4ca5-baf6-bad6626b84e9" xmlns:ns3="40b16217-7e26-4dce-af97-68eaad0f1932" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f461dd4a85cef57f3309d1104a6214f5" ns2:_="" ns3:_="">
     <xsd:import namespace="cf10023c-c1e1-4ca5-baf6-bad6626b84e9"/>
@@ -8196,26 +8172,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6269017F-E5DB-403C-81C5-BBF155D4F583}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cf10023c-c1e1-4ca5-baf6-bad6626b84e9"/>
-    <ds:schemaRef ds:uri="40b16217-7e26-4dce-af97-68eaad0f1932"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{172B3EEB-21ED-4F96-BCDA-03252FF4BB1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf10023c-c1e1-4ca5-baf6-bad6626b84e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_Flow_SignoffStatus xmlns="cf10023c-c1e1-4ca5-baf6-bad6626b84e9" xsi:nil="true"/>
+    <TaxCatchAll xmlns="40b16217-7e26-4dce-af97-68eaad0f1932" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5A73F1C-4F4E-45A2-8E7F-3EB53382C2D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8232,4 +8210,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{172B3EEB-21ED-4F96-BCDA-03252FF4BB1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6269017F-E5DB-403C-81C5-BBF155D4F583}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cf10023c-c1e1-4ca5-baf6-bad6626b84e9"/>
+    <ds:schemaRef ds:uri="40b16217-7e26-4dce-af97-68eaad0f1932"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Fleet.xlsx
+++ b/Fleet.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qatar Sarens Gulf\Downloads\#Only for me\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohamedShakeel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB6E16F-80CB-4952-A019-2AD2DE16E088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0F89D5-9B6C-44E0-9859-11CDCF872198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB5E0735-E981-4D65-8766-4471E111115C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB5E0735-E981-4D65-8766-4471E111115C}"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicles &amp; others" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vehicles &amp; others'!$A$1:$L$175</definedName>
-    <definedName name="_xlcn.WorksheetConnection_VehiclesothersA1K1501" hidden="1">'Vehicles &amp; others'!$A$2:$K$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vehicles &amp; others'!$A$1:$M$175</definedName>
+    <definedName name="_xlcn.WorksheetConnection_VehiclesothersA1K1501" hidden="1">'Vehicles &amp; others'!$A$2:$L$148</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="577">
   <si>
     <t>QAIG-AT-18</t>
   </si>
@@ -1296,9 +1296,6 @@
     <t>WMAHW2ZZ47M477128</t>
   </si>
   <si>
-    <t>WMAH94ZZ28L051643</t>
-  </si>
-  <si>
     <t>YVZXG20A2PB405943</t>
   </si>
   <si>
@@ -1713,12 +1710,6 @@
     <t>L97113059R3008861</t>
   </si>
   <si>
-    <t>TRANSFERED  FROM KSA</t>
-  </si>
-  <si>
-    <t>PURCHASED</t>
-  </si>
-  <si>
     <t>LG30DT (2024)</t>
   </si>
   <si>
@@ -1804,6 +1795,12 @@
   </si>
   <si>
     <t>3.0 TON SERVICE-TRUCK-CANTER</t>
+  </si>
+  <si>
+    <t>WMAH94ZZ28L051644</t>
+  </si>
+  <si>
+    <t>YEAR MODEL</t>
   </si>
 </sst>
 </file>
@@ -1874,7 +1871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1911,8 +1908,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2281,13 +2281,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6460FE9F-EF3B-4D4D-BCC7-D162649A6FCD}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:M171"/>
+  <dimension ref="A1:L171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="F93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G107" sqref="G107"/>
+      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2295,19 +2295,20 @@
     <col min="1" max="1" width="30.85546875" style="9" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="37" style="9" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="40.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>141</v>
       </c>
@@ -2324,30 +2325,33 @@
         <v>145</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>186</v>
@@ -2358,28 +2362,31 @@
       <c r="E2" s="2">
         <v>15863</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>552</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="F2" s="11">
+        <v>2005</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="3">
         <v>53395</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>187</v>
@@ -2390,23 +2397,26 @@
       <c r="E3" s="2">
         <v>23606</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="F3" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" s="3">
         <v>55085</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>152</v>
       </c>
@@ -2422,23 +2432,26 @@
       <c r="E4" s="2">
         <v>25873</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>554</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="F4" s="11">
+        <v>1999</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="3">
         <v>15104</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>152</v>
       </c>
@@ -2454,28 +2467,31 @@
       <c r="E5" s="2">
         <v>59920</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="F5" s="11">
+        <v>2007</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" s="3">
         <v>135047</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>190</v>
@@ -2486,28 +2502,31 @@
       <c r="E6" s="2">
         <v>27491</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="F6" s="11">
+        <v>2007</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" s="3">
         <v>133080</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>191</v>
@@ -2518,28 +2537,31 @@
       <c r="E7" s="2">
         <v>27509</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="F7" s="11">
+        <v>2007</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" s="3">
         <v>53656</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>192</v>
@@ -2550,28 +2572,31 @@
       <c r="E8" s="2">
         <v>4438</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="F8" s="11">
+        <v>2008</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J8" s="3">
         <v>61982</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>193</v>
@@ -2582,28 +2607,31 @@
       <c r="E9" s="2">
         <v>48656</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="F9" s="11">
+        <v>2008</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" s="3">
         <v>137072</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>194</v>
@@ -2614,28 +2642,31 @@
       <c r="E10" s="2">
         <v>29797</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="F10" s="11">
+        <v>2007</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" s="3">
         <v>61955</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>195</v>
@@ -2646,28 +2677,31 @@
       <c r="E11" s="2">
         <v>31478</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="F11" s="11">
+        <v>2008</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J11" s="3">
         <v>73193</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>196</v>
@@ -2678,28 +2712,31 @@
       <c r="E12" s="2">
         <v>33379</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>427</v>
+      <c r="F12" s="11">
+        <v>2008</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>197</v>
@@ -2710,28 +2747,31 @@
       <c r="E13" s="2">
         <v>50243</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="F13" s="11">
+        <v>2012</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" s="3">
         <v>67533</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>198</v>
@@ -2742,28 +2782,31 @@
       <c r="E14" s="2">
         <v>51734</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="F14" s="11">
+        <v>2007</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" s="3">
         <v>137050</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>199</v>
@@ -2774,28 +2817,31 @@
       <c r="E15" s="2">
         <v>53379</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="F15" s="11">
+        <v>2013</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" s="3">
         <v>138196</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>200</v>
@@ -2806,28 +2852,31 @@
       <c r="E16" s="2">
         <v>52658</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I16" s="3">
+      <c r="F16" s="11">
+        <v>2007</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" s="3">
         <v>67306</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>201</v>
@@ -2838,28 +2887,31 @@
       <c r="E17" s="2">
         <v>53076</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="F17" s="11">
+        <v>2013</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" s="3">
         <v>73379</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>202</v>
@@ -2870,28 +2922,31 @@
       <c r="E18" s="2">
         <v>53346</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="F18" s="11">
+        <v>2013</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" s="3">
         <v>135154</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>203</v>
@@ -2902,28 +2957,31 @@
       <c r="E19" s="2">
         <v>54207</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="11">
+        <v>2009</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I19" s="3">
+      <c r="H19" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J19" s="3">
         <v>55005199</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>204</v>
@@ -2934,28 +2992,31 @@
       <c r="E20" s="2">
         <v>54205</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="11">
+        <v>2009</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="H20" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20" s="3">
         <v>55005197</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>205</v>
@@ -2966,28 +3027,31 @@
       <c r="E21" s="2">
         <v>55225</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="F21" s="11">
+        <v>2014</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" s="3">
         <v>46014</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>206</v>
@@ -2998,28 +3062,31 @@
       <c r="E22" s="2">
         <v>58256</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="F22" s="11">
+        <v>2014</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" s="3">
         <v>45087</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>207</v>
@@ -3030,28 +3097,31 @@
       <c r="E23" s="2">
         <v>58281</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="F23" s="11">
+        <v>2014</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" s="3">
         <v>45432</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>208</v>
@@ -3062,28 +3132,31 @@
       <c r="E24" s="2">
         <v>15315</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="F24" s="11">
+        <v>2014</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J24" s="3">
         <v>45433</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>209</v>
@@ -3094,28 +3167,31 @@
       <c r="E25" s="2">
         <v>26381</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I25" s="3">
+      <c r="F25" s="11">
+        <v>2015</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J25" s="3">
         <v>45448</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>210</v>
@@ -3126,28 +3202,31 @@
       <c r="E26" s="2">
         <v>26121</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="F26" s="11">
+        <v>2015</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J26" s="3">
         <v>45449</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>211</v>
@@ -3158,28 +3237,31 @@
       <c r="E27" s="2">
         <v>26471</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="F27" s="11">
+        <v>2014</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J27" s="3">
         <v>45452</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>212</v>
@@ -3190,23 +3272,26 @@
       <c r="E28" s="2">
         <v>59918</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I28" s="3">
+      <c r="F28" s="11">
+        <v>2007</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J28" s="3">
         <v>135044</v>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>152</v>
       </c>
@@ -3222,28 +3307,31 @@
       <c r="E29" s="2">
         <v>46743</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="F29" s="11">
+        <v>2007</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J29" s="3">
         <v>74746</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>214</v>
@@ -3254,28 +3342,31 @@
       <c r="E30" s="2">
         <v>38080</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I30" s="3">
+      <c r="F30" s="11">
+        <v>2010</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J30" s="3">
         <v>10129</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>215</v>
@@ -3286,28 +3377,31 @@
       <c r="E31" s="2">
         <v>34881</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I31" s="3">
+      <c r="F31" s="11">
+        <v>2016</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J31" s="3">
         <v>549566</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>216</v>
@@ -3318,28 +3412,31 @@
       <c r="E32" s="2">
         <v>34896</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="F32" s="11">
+        <v>2016</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J32" s="3">
         <v>549568</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>217</v>
@@ -3350,28 +3447,31 @@
       <c r="E33" s="2">
         <v>42161</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="F33" s="11">
+        <v>2016</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J33" s="3">
         <v>549753</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>218</v>
@@ -3382,28 +3482,31 @@
       <c r="E34" s="2">
         <v>44693</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I34" s="3">
+      <c r="F34" s="11">
+        <v>2016</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J34" s="3">
         <v>549754</v>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>219</v>
@@ -3414,23 +3517,26 @@
       <c r="E35" s="2">
         <v>67837</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="F35" s="11">
+        <v>2008</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J35" s="3">
         <v>62274</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>152</v>
       </c>
@@ -3446,23 +3552,26 @@
       <c r="E36" s="2">
         <v>69916</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I36" s="3">
+      <c r="F36" s="11">
+        <v>2017</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J36" s="3">
         <v>549840</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>152</v>
       </c>
@@ -3478,23 +3587,26 @@
       <c r="E37" s="2">
         <v>69920</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I37" s="3">
+      <c r="F37" s="11">
+        <v>2017</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J37" s="3">
         <v>549839</v>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>152</v>
       </c>
@@ -3510,23 +3622,26 @@
       <c r="E38" s="2">
         <v>69917</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I38" s="3">
+      <c r="F38" s="11">
+        <v>2017</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J38" s="3">
         <v>549877</v>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>152</v>
       </c>
@@ -3542,28 +3657,31 @@
       <c r="E39" s="2">
         <v>69921</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I39" s="3">
+      <c r="F39" s="11">
+        <v>2017</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J39" s="3">
         <v>549861</v>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>224</v>
@@ -3574,23 +3692,26 @@
       <c r="E40" s="2">
         <v>75547</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I40" s="3">
+      <c r="F40" s="11">
+        <v>2010</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J40" s="3">
         <v>10127</v>
       </c>
-      <c r="J40" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>152</v>
       </c>
@@ -3606,23 +3727,26 @@
       <c r="E41" s="2">
         <v>76410</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="F41" s="11">
+        <v>2008</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J41" s="3">
         <v>62059</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>152</v>
       </c>
@@ -3638,23 +3762,26 @@
       <c r="E42" s="2">
         <v>76409</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="F42" s="11">
+        <v>2008</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J42" s="3">
         <v>62022</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>152</v>
       </c>
@@ -3670,23 +3797,26 @@
       <c r="E43" s="2">
         <v>76561</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="F43" s="11">
+        <v>2017</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J43" s="3">
         <v>35321</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>152</v>
       </c>
@@ -3702,23 +3832,26 @@
       <c r="E44" s="2">
         <v>76599</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>428</v>
+      <c r="F44" s="11">
+        <v>2023</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>152</v>
       </c>
@@ -3734,23 +3867,26 @@
       <c r="E45" s="2">
         <v>76597</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>429</v>
+      <c r="F45" s="11">
+        <v>2023</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>152</v>
       </c>
@@ -3766,23 +3902,26 @@
       <c r="E46" s="2">
         <v>76598</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>430</v>
+      <c r="F46" s="11">
+        <v>2023</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>152</v>
       </c>
@@ -3798,23 +3937,26 @@
       <c r="E47" s="2">
         <v>76631</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>431</v>
+      <c r="F47" s="11">
+        <v>2023</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>152</v>
       </c>
@@ -3830,23 +3972,26 @@
       <c r="E48" s="2">
         <v>76609</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>432</v>
+      <c r="F48" s="11">
+        <v>2023</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>152</v>
       </c>
@@ -3862,23 +4007,26 @@
       <c r="E49" s="2">
         <v>76630</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>433</v>
+      <c r="F49" s="11">
+        <v>2023</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>152</v>
       </c>
@@ -3894,23 +4042,26 @@
       <c r="E50" s="2">
         <v>76600</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>434</v>
+      <c r="F50" s="11">
+        <v>2023</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>152</v>
       </c>
@@ -3926,23 +4077,26 @@
       <c r="E51" s="2">
         <v>76608</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>435</v>
+      <c r="F51" s="11">
+        <v>2023</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>152</v>
       </c>
@@ -3958,23 +4112,26 @@
       <c r="E52" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>436</v>
+      <c r="F52" s="11">
+        <v>2010</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>152</v>
       </c>
@@ -3990,23 +4147,26 @@
       <c r="E53" s="2">
         <v>76894</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>437</v>
+      <c r="F53" s="11">
+        <v>2023</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>152</v>
       </c>
@@ -4022,23 +4182,26 @@
       <c r="E54" s="2">
         <v>76893</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>438</v>
+      <c r="F54" s="11">
+        <v>2023</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>152</v>
       </c>
@@ -4054,23 +4217,26 @@
       <c r="E55" s="2">
         <v>76905</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>439</v>
+      <c r="F55" s="11">
+        <v>2023</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>152</v>
       </c>
@@ -4086,23 +4252,26 @@
       <c r="E56" s="2">
         <v>76900</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>440</v>
+      <c r="F56" s="11">
+        <v>2023</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>152</v>
       </c>
@@ -4118,23 +4287,26 @@
       <c r="E57" s="2">
         <v>76909</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>441</v>
+      <c r="F57" s="11">
+        <v>2023</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>152</v>
       </c>
@@ -4150,23 +4322,26 @@
       <c r="E58" s="2">
         <v>76904</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>442</v>
+      <c r="F58" s="11">
+        <v>2023</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>152</v>
       </c>
@@ -4182,23 +4357,26 @@
       <c r="E59" s="2">
         <v>76903</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>443</v>
+      <c r="F59" s="11">
+        <v>2023</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>152</v>
       </c>
@@ -4214,23 +4392,26 @@
       <c r="E60" s="2">
         <v>76892</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>444</v>
+      <c r="F60" s="11">
+        <v>2023</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>152</v>
       </c>
@@ -4246,23 +4427,26 @@
       <c r="E61" s="2">
         <v>76898</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>445</v>
+      <c r="F61" s="11">
+        <v>2023</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>152</v>
       </c>
@@ -4278,23 +4462,26 @@
       <c r="E62" s="2">
         <v>76908</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>446</v>
+      <c r="F62" s="11">
+        <v>2023</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>152</v>
       </c>
@@ -4310,23 +4497,26 @@
       <c r="E63" s="2">
         <v>76906</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>447</v>
+      <c r="F63" s="11">
+        <v>2023</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>152</v>
       </c>
@@ -4342,23 +4532,26 @@
       <c r="E64" s="2">
         <v>76897</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>448</v>
+      <c r="F64" s="11">
+        <v>2023</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>152</v>
       </c>
@@ -4374,24 +4567,26 @@
       <c r="E65" s="2">
         <v>78203</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="K65" s="4"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F65" s="11">
+        <v>2021</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>152</v>
       </c>
@@ -4407,23 +4602,26 @@
       <c r="E66" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I66" s="3" t="s">
+      <c r="F66" s="11">
+        <v>2022</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="I66" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>152</v>
       </c>
@@ -4439,29 +4637,31 @@
       <c r="E67" s="2">
         <v>79000</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="K67" s="4"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F67" s="11">
+        <v>2025</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>252</v>
@@ -4472,26 +4672,27 @@
       <c r="E68" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I68" s="3">
+      <c r="F68" s="14"/>
+      <c r="G68" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J68" s="3">
         <v>71342</v>
       </c>
-      <c r="J68" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K68" s="4"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K68" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L68" s="4"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>167</v>
@@ -4505,26 +4706,27 @@
       <c r="E69" s="2">
         <v>32399</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="H69" s="2" t="s">
+      <c r="F69" s="10"/>
+      <c r="G69" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="I69" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="I69" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="K69" s="2"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J69" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>167</v>
@@ -4538,26 +4740,27 @@
       <c r="E70" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H70" s="2" t="s">
+      <c r="F70" s="10"/>
+      <c r="G70" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I70" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="I70" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K70" s="2"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J70" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L70" s="2"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>167</v>
@@ -4571,26 +4774,27 @@
       <c r="E71" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H71" s="2" t="s">
+      <c r="F71" s="10"/>
+      <c r="G71" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I71" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="I71" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K71" s="2"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J71" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L71" s="2"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>167</v>
@@ -4604,26 +4808,27 @@
       <c r="E72" s="2">
         <v>38138</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H72" s="2" t="s">
+      <c r="F72" s="10"/>
+      <c r="G72" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I72" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="K72" s="2"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J72" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>167</v>
@@ -4637,26 +4842,27 @@
       <c r="E73" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H73" s="2" t="s">
+      <c r="F73" s="10"/>
+      <c r="G73" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I73" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="I73" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K73" s="2"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J73" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L73" s="2"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>167</v>
@@ -4670,26 +4876,27 @@
       <c r="E74" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H74" s="2" t="s">
+      <c r="F74" s="10"/>
+      <c r="G74" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I74" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="I74" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K74" s="2"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J74" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L74" s="2"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>167</v>
@@ -4703,26 +4910,27 @@
       <c r="E75" s="2">
         <v>21107</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="H75" s="2" t="s">
+      <c r="F75" s="10"/>
+      <c r="G75" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="I75" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="I75" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="K75" s="2"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J75" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="L75" s="2"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>167</v>
@@ -4736,26 +4944,27 @@
       <c r="E76" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H76" s="2" t="s">
+      <c r="F76" s="10"/>
+      <c r="G76" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I76" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K76" s="2"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J76" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L76" s="2"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>167</v>
@@ -4769,26 +4978,27 @@
       <c r="E77" s="2">
         <v>36530</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H77" s="2" t="s">
+      <c r="F77" s="10"/>
+      <c r="G77" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I77" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I77" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="K77" s="2"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J77" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="L77" s="2"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>167</v>
@@ -4802,26 +5012,27 @@
       <c r="E78" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H78" s="2" t="s">
+      <c r="F78" s="10"/>
+      <c r="G78" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I78" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="I78" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K78" s="2"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J78" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L78" s="2"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>167</v>
@@ -4835,26 +5046,27 @@
       <c r="E79" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H79" s="2" t="s">
+      <c r="F79" s="10"/>
+      <c r="G79" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I79" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="I79" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K79" s="2"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J79" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>167</v>
@@ -4868,26 +5080,27 @@
       <c r="E80" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H80" s="2" t="s">
+      <c r="F80" s="10"/>
+      <c r="G80" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I80" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="I80" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J80" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>168</v>
@@ -4901,26 +5114,27 @@
       <c r="E81" s="2">
         <v>26681</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K81" s="2"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F81" s="10"/>
+      <c r="G81" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L81" s="2"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>168</v>
@@ -4934,26 +5148,27 @@
       <c r="E82" s="2">
         <v>26678</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F82" s="10"/>
+      <c r="G82" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="G82" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H82" s="2">
+      <c r="H82" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I82" s="2">
         <v>70825347</v>
       </c>
-      <c r="I82" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="K82" s="2"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J82" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>168</v>
@@ -4967,26 +5182,27 @@
       <c r="E83" s="2">
         <v>26683</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F83" s="10"/>
+      <c r="G83" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="G83" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H83" s="2">
+      <c r="H83" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I83" s="2">
         <v>70825269</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="K83" s="2"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J83" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="L83" s="2"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>168</v>
@@ -5000,26 +5216,27 @@
       <c r="E84" s="2">
         <v>26715</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F84" s="10"/>
+      <c r="G84" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="G84" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H84" s="2">
+      <c r="H84" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I84" s="2">
         <v>70825268</v>
       </c>
-      <c r="I84" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="K84" s="2"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J84" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="L84" s="2"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>169</v>
@@ -5033,26 +5250,27 @@
       <c r="E85" s="2">
         <v>77749</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="F85" s="15"/>
+      <c r="G85" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="G85" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H85" s="7" t="s">
+      <c r="H85" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I85" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="I85" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J85" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="K85" s="5"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J85" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="L85" s="5"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>169</v>
@@ -5066,26 +5284,27 @@
       <c r="E86" s="2">
         <v>77777</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="F86" s="15"/>
+      <c r="G86" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="G86" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H86" s="7" t="s">
+      <c r="H86" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I86" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="I86" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J86" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="K86" s="5"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J86" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="L86" s="5"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>170</v>
@@ -5099,24 +5318,25 @@
       <c r="E87" s="2">
         <v>78298</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="F87" s="15"/>
+      <c r="G87" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="G87" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H87" s="2" t="s">
+      <c r="H87" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I87" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="I87" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J87" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="K87" s="5"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J87" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="L87" s="5"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>153</v>
       </c>
@@ -5132,24 +5352,25 @@
       <c r="E88" s="2">
         <v>77766</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="F88" s="15"/>
+      <c r="G88" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G88" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H88" s="2">
+      <c r="H88" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I88" s="2">
         <v>10457</v>
       </c>
-      <c r="I88" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J88" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="K88" s="5"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J88" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="L88" s="5"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>154</v>
       </c>
@@ -5165,24 +5386,25 @@
       <c r="E89" s="2">
         <v>77725</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="F89" s="15"/>
+      <c r="G89" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="G89" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H89" s="2" t="s">
+      <c r="H89" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I89" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J89" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="K89" s="5"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J89" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="L89" s="5"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>154</v>
       </c>
@@ -5198,24 +5420,25 @@
       <c r="E90" s="2">
         <v>77795</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="F90" s="15"/>
+      <c r="G90" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="G90" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H90" s="2" t="s">
+      <c r="H90" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I90" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="I90" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J90" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="K90" s="5"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J90" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="L90" s="5"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>155</v>
       </c>
@@ -5231,24 +5454,25 @@
       <c r="E91" s="2">
         <v>334389</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="F91" s="15"/>
+      <c r="G91" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G91" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H91" s="2" t="s">
+      <c r="H91" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I91" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J91" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="K91" s="5"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J91" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="L91" s="5"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>155</v>
       </c>
@@ -5264,24 +5488,25 @@
       <c r="E92" s="2">
         <v>185319</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="F92" s="15"/>
+      <c r="G92" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G92" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H92" s="2" t="s">
+      <c r="H92" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I92" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="I92" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J92" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="K92" s="5"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J92" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="L92" s="5"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>155</v>
       </c>
@@ -5297,24 +5522,25 @@
       <c r="E93" s="2">
         <v>184758</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="F93" s="15"/>
+      <c r="G93" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G93" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H93" s="2" t="s">
+      <c r="H93" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I93" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="I93" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J93" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="K93" s="5"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J93" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="L93" s="5"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>155</v>
       </c>
@@ -5330,24 +5556,25 @@
       <c r="E94" s="2">
         <v>184522</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="F94" s="15"/>
+      <c r="G94" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G94" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H94" s="2" t="s">
+      <c r="H94" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I94" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J94" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="K94" s="5"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J94" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="L94" s="5"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>155</v>
       </c>
@@ -5363,24 +5590,25 @@
       <c r="E95" s="2">
         <v>184520</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="F95" s="15"/>
+      <c r="G95" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G95" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H95" s="2" t="s">
+      <c r="H95" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I95" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="I95" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J95" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="K95" s="5"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J95" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="L95" s="5"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>156</v>
       </c>
@@ -5396,24 +5624,25 @@
       <c r="E96" s="2">
         <v>183891</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="F96" s="15"/>
+      <c r="G96" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="G96" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H96" s="2" t="s">
+      <c r="H96" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I96" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="I96" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J96" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="K96" s="5"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J96" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="L96" s="5"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>156</v>
       </c>
@@ -5429,24 +5658,25 @@
       <c r="E97" s="2">
         <v>183678</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="F97" s="15"/>
+      <c r="G97" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="G97" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H97" s="2" t="s">
+      <c r="H97" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I97" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="I97" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J97" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="K97" s="5"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J97" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="L97" s="5"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>157</v>
       </c>
@@ -5462,26 +5692,27 @@
       <c r="E98" s="2">
         <v>791454</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="F98" s="15"/>
+      <c r="G98" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="G98" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H98" s="2" t="s">
+      <c r="H98" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I98" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="I98" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J98" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="K98" s="5"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J98" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="L98" s="5"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>174</v>
@@ -5495,24 +5726,25 @@
       <c r="E99" s="2">
         <v>255436</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="G99" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H99" s="2" t="s">
+      <c r="F99" s="15"/>
+      <c r="G99" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="H99" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I99" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="I99" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J99" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="K99" s="5"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J99" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="L99" s="5"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>158</v>
       </c>
@@ -5528,24 +5760,25 @@
       <c r="E100" s="2">
         <v>526292</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="F100" s="15"/>
+      <c r="G100" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="G100" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H100" s="2" t="s">
+      <c r="H100" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I100" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J100" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="K100" s="5"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J100" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="L100" s="5"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>158</v>
       </c>
@@ -5561,24 +5794,25 @@
       <c r="E101" s="2">
         <v>526291</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="F101" s="15"/>
+      <c r="G101" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="G101" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H101" s="2" t="s">
+      <c r="H101" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I101" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J101" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="K101" s="5"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J101" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="L101" s="5"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>157</v>
       </c>
@@ -5594,26 +5828,27 @@
       <c r="E102" s="2">
         <v>541871</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="F102" s="15"/>
+      <c r="G102" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="G102" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H102" s="2" t="s">
+      <c r="H102" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I102" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J102" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="K102" s="5"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J102" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="L102" s="5"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>176</v>
@@ -5627,26 +5862,27 @@
       <c r="E103" s="2">
         <v>264508</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="G103" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H103" s="2" t="s">
+      <c r="F103" s="15"/>
+      <c r="G103" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I103" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="I103" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J103" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="K103" s="5"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J103" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="L103" s="5"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>176</v>
@@ -5660,24 +5896,25 @@
       <c r="E104" s="2">
         <v>264507</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="G104" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H104" s="2" t="s">
+      <c r="F104" s="15"/>
+      <c r="G104" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I104" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="I104" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J104" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="K104" s="5"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J104" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="L104" s="5"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>157</v>
       </c>
@@ -5693,24 +5930,25 @@
       <c r="E105" s="2">
         <v>367309</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="F105" s="15"/>
+      <c r="G105" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="G105" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H105" s="2" t="s">
+      <c r="H105" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I105" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="I105" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J105" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="K105" s="5"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J105" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="L105" s="5"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>156</v>
       </c>
@@ -5726,24 +5964,25 @@
       <c r="E106" s="2">
         <v>336639</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="F106" s="15"/>
+      <c r="G106" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="G106" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H106" s="2" t="s">
+      <c r="H106" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I106" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="I106" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J106" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="K106" s="5"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J106" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="L106" s="5"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>156</v>
       </c>
@@ -5759,24 +5998,25 @@
       <c r="E107" s="2">
         <v>336640</v>
       </c>
-      <c r="F107" s="2" t="s">
+      <c r="F107" s="15"/>
+      <c r="G107" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="G107" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H107" s="2" t="s">
+      <c r="H107" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I107" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="I107" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J107" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="K107" s="5"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J107" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="L107" s="5"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>156</v>
       </c>
@@ -5792,24 +6032,25 @@
       <c r="E108" s="2">
         <v>336645</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="F108" s="15"/>
+      <c r="G108" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="G108" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H108" s="2" t="s">
+      <c r="H108" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I108" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="I108" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J108" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="K108" s="5"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J108" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="L108" s="5"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>156</v>
       </c>
@@ -5825,24 +6066,25 @@
       <c r="E109" s="2">
         <v>336642</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="F109" s="15"/>
+      <c r="G109" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="G109" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H109" s="2" t="s">
+      <c r="H109" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I109" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="I109" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J109" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="K109" s="5"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J109" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="L109" s="5"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>156</v>
       </c>
@@ -5858,24 +6100,25 @@
       <c r="E110" s="2">
         <v>336647</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="F110" s="15"/>
+      <c r="G110" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="G110" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H110" s="2" t="s">
+      <c r="H110" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I110" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="I110" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J110" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="K110" s="5"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J110" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K110" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="L110" s="5"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>156</v>
       </c>
@@ -5891,26 +6134,27 @@
       <c r="E111" s="2">
         <v>336641</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="F111" s="15"/>
+      <c r="G111" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="G111" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H111" s="2" t="s">
+      <c r="H111" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I111" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="I111" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J111" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="K111" s="5"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J111" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="L111" s="5"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>176</v>
@@ -5924,24 +6168,25 @@
       <c r="E112" s="2">
         <v>336992</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="G112" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H112" s="2" t="s">
+      <c r="F112" s="15"/>
+      <c r="G112" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I112" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="I112" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J112" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="K112" s="5"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J112" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="L112" s="5"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>160</v>
       </c>
@@ -5957,23 +6202,23 @@
       <c r="E113" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="G113" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G113" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H113" s="2" t="s">
+      <c r="H113" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I113" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="I113" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="J113" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K113" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>161</v>
       </c>
@@ -5989,23 +6234,23 @@
       <c r="E114" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="G114" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="G114" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H114" s="2" t="s">
+      <c r="H114" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I114" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="I114" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="J114" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K114" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>159</v>
       </c>
@@ -6021,24 +6266,25 @@
       <c r="E115" s="2">
         <v>103761</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="F115" s="14"/>
+      <c r="G115" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="G115" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H115" s="2" t="s">
+      <c r="H115" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I115" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="I115" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J115" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="K115" s="4"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J115" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K115" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="L115" s="4"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>159</v>
       </c>
@@ -6054,24 +6300,25 @@
       <c r="E116" s="2">
         <v>103824</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="F116" s="14"/>
+      <c r="G116" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="G116" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H116" s="2" t="s">
+      <c r="H116" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I116" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="I116" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J116" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="K116" s="4"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J116" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K116" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="L116" s="4"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>159</v>
       </c>
@@ -6087,24 +6334,25 @@
       <c r="E117" s="2">
         <v>269554</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="F117" s="14"/>
+      <c r="G117" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="G117" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H117" s="2" t="s">
+      <c r="H117" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I117" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="I117" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J117" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="K117" s="4"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J117" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K117" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="L117" s="4"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>159</v>
       </c>
@@ -6120,24 +6368,25 @@
       <c r="E118" s="2">
         <v>269552</v>
       </c>
-      <c r="F118" s="2" t="s">
+      <c r="F118" s="14"/>
+      <c r="G118" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="G118" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H118" s="2" t="s">
+      <c r="H118" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I118" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="I118" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J118" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="K118" s="4"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J118" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="L118" s="4"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>159</v>
       </c>
@@ -6153,24 +6402,25 @@
       <c r="E119" s="2">
         <v>68448</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="F119" s="14"/>
+      <c r="G119" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="G119" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H119" s="2" t="s">
+      <c r="H119" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I119" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="I119" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J119" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="K119" s="4"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J119" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="L119" s="4"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>159</v>
       </c>
@@ -6186,24 +6436,25 @@
       <c r="E120" s="2">
         <v>68472</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="F120" s="14"/>
+      <c r="G120" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="G120" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H120" s="2" t="s">
+      <c r="H120" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I120" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="I120" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J120" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="K120" s="4"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J120" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K120" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="L120" s="4"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>159</v>
       </c>
@@ -6219,24 +6470,25 @@
       <c r="E121" s="2">
         <v>208968</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="F121" s="14"/>
+      <c r="G121" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="G121" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H121" s="2" t="s">
+      <c r="H121" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I121" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="I121" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J121" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="K121" s="4"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J121" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="L121" s="4"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>159</v>
       </c>
@@ -6252,24 +6504,25 @@
       <c r="E122" s="2">
         <v>208894</v>
       </c>
-      <c r="F122" s="2" t="s">
+      <c r="F122" s="14"/>
+      <c r="G122" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="G122" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H122" s="2" t="s">
+      <c r="H122" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I122" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="I122" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J122" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="K122" s="4"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J122" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="L122" s="4"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>159</v>
       </c>
@@ -6285,24 +6538,25 @@
       <c r="E123" s="2">
         <v>49505</v>
       </c>
-      <c r="F123" s="2" t="s">
+      <c r="F123" s="14"/>
+      <c r="G123" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G123" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H123" s="2" t="s">
+      <c r="H123" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I123" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="I123" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J123" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="K123" s="4"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J123" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="L123" s="4"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>159</v>
       </c>
@@ -6318,24 +6572,25 @@
       <c r="E124" s="2">
         <v>202215</v>
       </c>
-      <c r="F124" s="2" t="s">
+      <c r="F124" s="14"/>
+      <c r="G124" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="G124" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H124" s="2" t="s">
+      <c r="H124" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I124" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="I124" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J124" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="K124" s="4"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J124" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K124" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="L124" s="4"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>159</v>
       </c>
@@ -6351,24 +6606,25 @@
       <c r="E125" s="2">
         <v>184165</v>
       </c>
-      <c r="F125" s="2" t="s">
+      <c r="F125" s="14"/>
+      <c r="G125" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="G125" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H125" s="2" t="s">
+      <c r="H125" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I125" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="I125" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J125" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="K125" s="4"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J125" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K125" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="L125" s="4"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>159</v>
       </c>
@@ -6384,24 +6640,25 @@
       <c r="E126" s="2">
         <v>189506</v>
       </c>
-      <c r="F126" s="2" t="s">
+      <c r="F126" s="14"/>
+      <c r="G126" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="G126" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H126" s="2" t="s">
+      <c r="H126" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I126" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="I126" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J126" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="K126" s="4"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J126" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="L126" s="4"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>159</v>
       </c>
@@ -6417,24 +6674,25 @@
       <c r="E127" s="2">
         <v>35816</v>
       </c>
-      <c r="F127" s="2" t="s">
+      <c r="F127" s="14"/>
+      <c r="G127" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="G127" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="I127" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J127" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="K127" s="4"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H127" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="L127" s="4"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>159</v>
       </c>
@@ -6450,24 +6708,25 @@
       <c r="E128" s="2">
         <v>298474</v>
       </c>
-      <c r="F128" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="G128" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="I128" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J128" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="K128" s="4"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F128" s="14"/>
+      <c r="G128" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="H128" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="L128" s="4"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>159</v>
       </c>
@@ -6483,24 +6742,25 @@
       <c r="E129" s="2">
         <v>294242</v>
       </c>
-      <c r="F129" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="G129" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="I129" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J129" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="K129" s="4"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F129" s="14"/>
+      <c r="G129" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="H129" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="L129" s="4"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>159</v>
       </c>
@@ -6516,24 +6776,25 @@
       <c r="E130" s="2">
         <v>298958</v>
       </c>
-      <c r="F130" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="G130" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J130" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="K130" s="4"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F130" s="14"/>
+      <c r="G130" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="H130" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K130" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="L130" s="4"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>162</v>
       </c>
@@ -6549,24 +6810,25 @@
       <c r="E131" s="2">
         <v>49080</v>
       </c>
-      <c r="F131" s="2" t="s">
+      <c r="F131" s="14"/>
+      <c r="G131" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="G131" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="I131" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J131" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="K131" s="4"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H131" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K131" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="L131" s="4"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>162</v>
       </c>
@@ -6582,24 +6844,25 @@
       <c r="E132" s="2">
         <v>49081</v>
       </c>
-      <c r="F132" s="2" t="s">
+      <c r="F132" s="14"/>
+      <c r="G132" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="G132" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J132" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="K132" s="4"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H132" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K132" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="L132" s="4"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>162</v>
       </c>
@@ -6615,24 +6878,25 @@
       <c r="E133" s="2">
         <v>49082</v>
       </c>
-      <c r="F133" s="2" t="s">
+      <c r="F133" s="14"/>
+      <c r="G133" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="G133" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J133" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="K133" s="4"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H133" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K133" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="L133" s="4"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>162</v>
       </c>
@@ -6648,24 +6912,25 @@
       <c r="E134" s="2">
         <v>49034</v>
       </c>
-      <c r="F134" s="2" t="s">
+      <c r="F134" s="14"/>
+      <c r="G134" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="G134" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="I134" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J134" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="K134" s="4"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H134" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K134" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="L134" s="4"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>162</v>
       </c>
@@ -6681,24 +6946,25 @@
       <c r="E135" s="2">
         <v>48569</v>
       </c>
-      <c r="F135" s="2" t="s">
+      <c r="F135" s="14"/>
+      <c r="G135" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="G135" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J135" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="K135" s="4"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H135" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="L135" s="4"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>162</v>
       </c>
@@ -6714,24 +6980,25 @@
       <c r="E136" s="2">
         <v>48568</v>
       </c>
-      <c r="F136" s="2" t="s">
+      <c r="F136" s="14"/>
+      <c r="G136" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="G136" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J136" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="K136" s="4"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H136" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K136" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="L136" s="4"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>162</v>
       </c>
@@ -6747,24 +7014,25 @@
       <c r="E137" s="2">
         <v>48578</v>
       </c>
-      <c r="F137" s="2" t="s">
+      <c r="F137" s="14"/>
+      <c r="G137" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="G137" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="I137" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J137" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="K137" s="4"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H137" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K137" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="L137" s="4"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>162</v>
       </c>
@@ -6780,24 +7048,25 @@
       <c r="E138" s="2">
         <v>48579</v>
       </c>
-      <c r="F138" s="2" t="s">
+      <c r="F138" s="14"/>
+      <c r="G138" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="G138" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="I138" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J138" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="K138" s="4"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H138" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K138" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="L138" s="4"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>162</v>
       </c>
@@ -6813,24 +7082,25 @@
       <c r="E139" s="2">
         <v>22088</v>
       </c>
-      <c r="F139" s="2" t="s">
+      <c r="F139" s="14"/>
+      <c r="G139" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="G139" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J139" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="K139" s="4"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H139" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K139" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="L139" s="4"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>162</v>
       </c>
@@ -6846,24 +7116,25 @@
       <c r="E140" s="2">
         <v>41903</v>
       </c>
-      <c r="F140" s="2" t="s">
+      <c r="F140" s="14"/>
+      <c r="G140" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="G140" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J140" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="K140" s="4"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H140" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K140" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="L140" s="4"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>162</v>
       </c>
@@ -6879,24 +7150,25 @@
       <c r="E141" s="2">
         <v>41913</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="F141" s="14"/>
+      <c r="G141" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="G141" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J141" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="K141" s="4"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H141" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K141" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="L141" s="4"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>162</v>
       </c>
@@ -6912,24 +7184,25 @@
       <c r="E142" s="2">
         <v>12235</v>
       </c>
-      <c r="F142" s="2" t="s">
+      <c r="F142" s="14"/>
+      <c r="G142" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="G142" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J142" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="K142" s="4"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H142" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K142" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="L142" s="4"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>162</v>
       </c>
@@ -6945,24 +7218,25 @@
       <c r="E143" s="2">
         <v>22651</v>
       </c>
-      <c r="F143" s="2" t="s">
+      <c r="F143" s="14"/>
+      <c r="G143" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="G143" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="I143" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J143" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="K143" s="4"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H143" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K143" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="L143" s="4"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>162</v>
       </c>
@@ -6978,24 +7252,25 @@
       <c r="E144" s="2">
         <v>36021</v>
       </c>
-      <c r="F144" s="2" t="s">
+      <c r="F144" s="14"/>
+      <c r="G144" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="G144" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="I144" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J144" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="K144" s="4"/>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H144" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K144" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="L144" s="4"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>162</v>
       </c>
@@ -7011,29 +7286,30 @@
       <c r="E145" s="2">
         <v>36022</v>
       </c>
-      <c r="F145" s="2" t="s">
+      <c r="F145" s="14"/>
+      <c r="G145" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="G145" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J145" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="K145" s="4"/>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H145" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K145" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="L145" s="4"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>322</v>
@@ -7044,24 +7320,25 @@
       <c r="E146" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F146" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G146" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I146" s="3">
+      <c r="F146" s="14"/>
+      <c r="G146" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H146" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J146" s="3">
         <v>45086</v>
       </c>
-      <c r="J146" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K146" s="4"/>
-    </row>
-    <row r="147" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K146" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L146" s="4"/>
+    </row>
+    <row r="147" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>152</v>
       </c>
@@ -7077,32 +7354,32 @@
       <c r="E147" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F147" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="G147" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>544</v>
+      <c r="F147" s="15">
+        <v>2023</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="H147" s="10" t="s">
+        <v>565</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J147" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="J147" s="2" t="s">
         <v>138</v>
       </c>
       <c r="K147" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="M147" s="14"/>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="L147" s="5"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>324</v>
@@ -7113,24 +7390,25 @@
       <c r="E148" s="2">
         <v>67263</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G148" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J148" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K148" s="4"/>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F148" s="14"/>
+      <c r="G148" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H148" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K148" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L148" s="4"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>152</v>
       </c>
@@ -7146,24 +7424,25 @@
       <c r="E149" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F149" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G149" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J149" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K149" s="4"/>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F149" s="14"/>
+      <c r="G149" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H149" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L149" s="4"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>152</v>
       </c>
@@ -7171,362 +7450,341 @@
         <v>138</v>
       </c>
       <c r="C150" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H150" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I150" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H151" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I151" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G152" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="H152" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="I152" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J152" s="3">
+        <v>31213</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G153" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="H153" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="I153" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J153" s="3">
+        <v>551148</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="D150" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F150" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G150" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H150" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I150" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J150" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K150" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A151" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F151" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G151" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H151" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I151" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J151" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K151" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A152" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="C152" s="3" t="s">
+      <c r="D154" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G154" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="H154" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="I154" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J154" s="3">
+        <v>551149</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G155" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="H155" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="I155" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J155" s="3">
+        <v>551150</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G156" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H156" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I156" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H157" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I157" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G158" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H158" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I158" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="D152" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F152" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="G152" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="H152" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I152" s="3">
-        <v>31213</v>
-      </c>
-      <c r="J152" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A153" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F153" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="G153" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="H153" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I153" s="3">
-        <v>551148</v>
-      </c>
-      <c r="J153" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F154" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="G154" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="H154" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I154" s="3">
-        <v>551149</v>
-      </c>
-      <c r="J154" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F155" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="G155" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="H155" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I155" s="3">
-        <v>551150</v>
-      </c>
-      <c r="J155" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A156" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C156" s="3" t="s">
+      <c r="D159" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H159" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I159" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="D156" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F156" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G156" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H156" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I156" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J156" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K156" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A157" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F157" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G157" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H157" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I157" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J157" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K157" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F158" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G158" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H158" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I158" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J158" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K158" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="D159" s="3" t="s">
+      <c r="D160" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="E159" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F159" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G159" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H159" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I159" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J159" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K159" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A160" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>479</v>
-      </c>
       <c r="E160" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F160" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G160" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H160" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I160" s="3" t="s">
+      <c r="G160" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H160" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I160" s="9" t="s">
         <v>138</v>
       </c>
       <c r="J160" s="3" t="s">
@@ -7544,24 +7802,21 @@
         <v>138</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F161" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G161" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H161" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I161" s="3" t="s">
+      <c r="G161" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H161" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I161" s="9" t="s">
         <v>138</v>
       </c>
       <c r="J161" s="3" t="s">
@@ -7579,24 +7834,21 @@
         <v>138</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F162" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G162" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H162" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I162" s="3" t="s">
+      <c r="G162" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H162" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I162" s="9" t="s">
         <v>138</v>
       </c>
       <c r="J162" s="3" t="s">
@@ -7614,24 +7866,21 @@
         <v>138</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F163" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G163" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H163" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I163" s="3" t="s">
+      <c r="G163" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H163" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I163" s="9" t="s">
         <v>138</v>
       </c>
       <c r="J163" s="3" t="s">
@@ -7646,30 +7895,30 @@
         <v>152</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F164" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="G164" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="H164" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I164" s="3" t="s">
+      <c r="G164" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="H164" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="I164" s="9" t="s">
         <v>138</v>
       </c>
       <c r="J164" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K164" s="3" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7678,30 +7927,30 @@
         <v>152</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F165" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="G165" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="H165" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I165" s="3" t="s">
+      <c r="G165" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="H165" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="I165" s="9" t="s">
         <v>138</v>
       </c>
       <c r="J165" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K165" s="3" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7713,24 +7962,21 @@
         <v>138</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F166" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G166" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H166" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I166" s="3" t="s">
+      <c r="G166" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H166" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I166" s="9" t="s">
         <v>138</v>
       </c>
       <c r="J166" s="3" t="s">
@@ -7748,24 +7994,21 @@
         <v>138</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F167" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G167" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H167" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I167" s="3" t="s">
+      <c r="G167" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H167" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I167" s="9" t="s">
         <v>138</v>
       </c>
       <c r="J167" s="3" t="s">
@@ -7783,24 +8026,21 @@
         <v>138</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F168" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G168" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H168" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I168" s="3" t="s">
+      <c r="G168" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H168" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I168" s="9" t="s">
         <v>138</v>
       </c>
       <c r="J168" s="3" t="s">
@@ -7812,107 +8052,98 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E169" s="3">
         <v>79713</v>
       </c>
-      <c r="F169" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="G169" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="H169" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="I169" s="3" t="s">
-        <v>545</v>
+      <c r="G169" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="H169" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="I169" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>138</v>
+        <v>544</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>548</v>
+        <v>138</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E170" s="3">
         <v>79717</v>
       </c>
-      <c r="F170" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="G170" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="H170" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="I170" s="3" t="s">
+      <c r="G170" s="9" t="s">
         <v>546</v>
       </c>
+      <c r="H170" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="I170" s="9" t="s">
+        <v>541</v>
+      </c>
       <c r="J170" s="3" t="s">
-        <v>138</v>
+        <v>545</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>548</v>
+        <v>138</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="B171" s="3" t="s">
-        <v>534</v>
-      </c>
       <c r="C171" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E171" s="3">
         <v>79684</v>
       </c>
-      <c r="F171" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="G171" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="H171" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="I171" s="3" t="s">
-        <v>138</v>
+      <c r="G171" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="H171" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="I171" s="9" t="s">
+        <v>542</v>
       </c>
       <c r="J171" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K171" s="3" t="s">
-        <v>547</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -7920,24 +8151,42 @@
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="WRwemcA0nyhlBsNJB+ZrdRdmiulp5J6snsQZWL5Ah84Ed5Vozay/STzz6Yal5yBJ6ZZSR7Wbira9Zl6KkC6oHw==" saltValue="VcbLbYiFYBn8Dk3MVK5/Wg==" spinCount="100000" sqref="B106:B112" name="Range1_2"/>
   </protectedRanges>
-  <autoFilter ref="A1:L175" xr:uid="{6460FE9F-EF3B-4D4D-BCC7-D162649A6FCD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C154:D168">
-    <sortCondition ref="D154:D168"/>
-  </sortState>
+  <autoFilter ref="A1:M175" xr:uid="{6460FE9F-EF3B-4D4D-BCC7-D162649A6FCD}"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H162 C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="I162 C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf10023c-c1e1-4ca5-baf6-bad6626b84e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_Flow_SignoffStatus xmlns="cf10023c-c1e1-4ca5-baf6-bad6626b84e9" xsi:nil="true"/>
+    <TaxCatchAll xmlns="40b16217-7e26-4dce-af97-68eaad0f1932" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CD0C5713D8B49840BA44FC47BC25FC9F" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d6c26ebffaa8bbd830e647f783d3198d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf10023c-c1e1-4ca5-baf6-bad6626b84e9" xmlns:ns3="40b16217-7e26-4dce-af97-68eaad0f1932" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f461dd4a85cef57f3309d1104a6214f5" ns2:_="" ns3:_="">
     <xsd:import namespace="cf10023c-c1e1-4ca5-baf6-bad6626b84e9"/>
@@ -8172,28 +8421,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6269017F-E5DB-403C-81C5-BBF155D4F583}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cf10023c-c1e1-4ca5-baf6-bad6626b84e9"/>
+    <ds:schemaRef ds:uri="40b16217-7e26-4dce-af97-68eaad0f1932"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf10023c-c1e1-4ca5-baf6-bad6626b84e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_Flow_SignoffStatus xmlns="cf10023c-c1e1-4ca5-baf6-bad6626b84e9" xsi:nil="true"/>
-    <TaxCatchAll xmlns="40b16217-7e26-4dce-af97-68eaad0f1932" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{172B3EEB-21ED-4F96-BCDA-03252FF4BB1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5A73F1C-4F4E-45A2-8E7F-3EB53382C2D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8210,23 +8457,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{172B3EEB-21ED-4F96-BCDA-03252FF4BB1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6269017F-E5DB-403C-81C5-BBF155D4F583}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cf10023c-c1e1-4ca5-baf6-bad6626b84e9"/>
-    <ds:schemaRef ds:uri="40b16217-7e26-4dce-af97-68eaad0f1932"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Fleet.xlsx
+++ b/Fleet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohamedShakeel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0F89D5-9B6C-44E0-9859-11CDCF872198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BF41E3-FB35-43BD-82D5-A4004828EAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB5E0735-E981-4D65-8766-4471E111115C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14325" windowHeight="15480" xr2:uid="{EB5E0735-E981-4D65-8766-4471E111115C}"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicles &amp; others" sheetId="3" r:id="rId1"/>
@@ -1227,9 +1227,6 @@
     <t>JL7BCE1JXDK023643</t>
   </si>
   <si>
-    <t>JL7BCE1JXDK023330</t>
-  </si>
-  <si>
     <t>JTEBU25J975074293</t>
   </si>
   <si>
@@ -1801,6 +1798,9 @@
   </si>
   <si>
     <t>YEAR MODEL</t>
+  </si>
+  <si>
+    <t>JL7BCE1J0DK023330</t>
   </si>
 </sst>
 </file>
@@ -2280,14 +2280,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6460FE9F-EF3B-4D4D-BCC7-D162649A6FCD}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:L171"/>
+  <sheetPr codeName="Sheet4" filterMode="1"/>
+  <dimension ref="A1:L175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomRight" activeCell="E178" sqref="E178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,7 +2325,7 @@
         <v>145</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>146</v>
@@ -2346,12 +2346,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>186</v>
@@ -2366,10 +2366,10 @@
         <v>2005</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>138</v>
@@ -2378,15 +2378,15 @@
         <v>53395</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>187</v>
@@ -2401,10 +2401,10 @@
         <v>2000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>138</v>
@@ -2413,10 +2413,10 @@
         <v>55085</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>152</v>
       </c>
@@ -2436,10 +2436,10 @@
         <v>1999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>138</v>
@@ -2448,10 +2448,10 @@
         <v>15104</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>152</v>
       </c>
@@ -2471,10 +2471,10 @@
         <v>2007</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>138</v>
@@ -2483,15 +2483,15 @@
         <v>135047</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>190</v>
@@ -2506,10 +2506,10 @@
         <v>2007</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>138</v>
@@ -2518,15 +2518,15 @@
         <v>133080</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>191</v>
@@ -2541,10 +2541,10 @@
         <v>2007</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>138</v>
@@ -2553,15 +2553,15 @@
         <v>53656</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>192</v>
@@ -2576,10 +2576,10 @@
         <v>2008</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>138</v>
@@ -2588,15 +2588,15 @@
         <v>61982</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>193</v>
@@ -2611,10 +2611,10 @@
         <v>2008</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>138</v>
@@ -2623,15 +2623,15 @@
         <v>137072</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>194</v>
@@ -2646,10 +2646,10 @@
         <v>2007</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>138</v>
@@ -2658,15 +2658,15 @@
         <v>61955</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>195</v>
@@ -2681,10 +2681,10 @@
         <v>2008</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>138</v>
@@ -2693,15 +2693,15 @@
         <v>73193</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>196</v>
@@ -2716,27 +2716,27 @@
         <v>2008</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>197</v>
@@ -2751,10 +2751,10 @@
         <v>2012</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>138</v>
@@ -2763,15 +2763,15 @@
         <v>67533</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>198</v>
@@ -2786,10 +2786,10 @@
         <v>2007</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>138</v>
@@ -2798,15 +2798,15 @@
         <v>137050</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>199</v>
@@ -2821,10 +2821,10 @@
         <v>2013</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>138</v>
@@ -2833,15 +2833,15 @@
         <v>138196</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>200</v>
@@ -2856,10 +2856,10 @@
         <v>2007</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>138</v>
@@ -2868,15 +2868,15 @@
         <v>67306</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>201</v>
@@ -2891,10 +2891,10 @@
         <v>2013</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>138</v>
@@ -2903,15 +2903,15 @@
         <v>73379</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>202</v>
@@ -2926,10 +2926,10 @@
         <v>2013</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>138</v>
@@ -2938,15 +2938,15 @@
         <v>135154</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>203</v>
@@ -2964,7 +2964,7 @@
         <v>329</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>138</v>
@@ -2973,15 +2973,15 @@
         <v>55005199</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>204</v>
@@ -2999,7 +2999,7 @@
         <v>329</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>138</v>
@@ -3008,15 +3008,15 @@
         <v>55005197</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>205</v>
@@ -3031,10 +3031,10 @@
         <v>2014</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>138</v>
@@ -3043,15 +3043,15 @@
         <v>46014</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>206</v>
@@ -3066,10 +3066,10 @@
         <v>2014</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>138</v>
@@ -3078,15 +3078,15 @@
         <v>45087</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>207</v>
@@ -3101,10 +3101,10 @@
         <v>2014</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>138</v>
@@ -3113,15 +3113,15 @@
         <v>45432</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>208</v>
@@ -3136,10 +3136,10 @@
         <v>2014</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>138</v>
@@ -3148,15 +3148,15 @@
         <v>45433</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>209</v>
@@ -3171,10 +3171,10 @@
         <v>2015</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>138</v>
@@ -3183,15 +3183,15 @@
         <v>45448</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>210</v>
@@ -3206,10 +3206,10 @@
         <v>2015</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>138</v>
@@ -3218,15 +3218,15 @@
         <v>45449</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>211</v>
@@ -3241,10 +3241,10 @@
         <v>2014</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>138</v>
@@ -3253,15 +3253,15 @@
         <v>45452</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>212</v>
@@ -3276,10 +3276,10 @@
         <v>2007</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>138</v>
@@ -3288,10 +3288,10 @@
         <v>135044</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>152</v>
       </c>
@@ -3311,10 +3311,10 @@
         <v>2007</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>138</v>
@@ -3323,15 +3323,15 @@
         <v>74746</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>214</v>
@@ -3346,10 +3346,10 @@
         <v>2010</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>138</v>
@@ -3358,15 +3358,15 @@
         <v>10129</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>215</v>
@@ -3381,10 +3381,10 @@
         <v>2016</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>138</v>
@@ -3393,15 +3393,15 @@
         <v>549566</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>216</v>
@@ -3416,10 +3416,10 @@
         <v>2016</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>138</v>
@@ -3428,15 +3428,15 @@
         <v>549568</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>217</v>
@@ -3451,10 +3451,10 @@
         <v>2016</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>138</v>
@@ -3463,15 +3463,15 @@
         <v>549753</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>218</v>
@@ -3486,10 +3486,10 @@
         <v>2016</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>138</v>
@@ -3498,15 +3498,15 @@
         <v>549754</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>219</v>
@@ -3521,10 +3521,10 @@
         <v>2008</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>138</v>
@@ -3533,10 +3533,10 @@
         <v>62274</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>152</v>
       </c>
@@ -3556,10 +3556,10 @@
         <v>2017</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>138</v>
@@ -3568,10 +3568,10 @@
         <v>549840</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>152</v>
       </c>
@@ -3591,10 +3591,10 @@
         <v>2017</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>138</v>
@@ -3603,10 +3603,10 @@
         <v>549839</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>152</v>
       </c>
@@ -3626,10 +3626,10 @@
         <v>2017</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>138</v>
@@ -3638,10 +3638,10 @@
         <v>549877</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>152</v>
       </c>
@@ -3661,10 +3661,10 @@
         <v>2017</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>138</v>
@@ -3673,15 +3673,15 @@
         <v>549861</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>224</v>
@@ -3696,10 +3696,10 @@
         <v>2010</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>138</v>
@@ -3708,10 +3708,10 @@
         <v>10127</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>152</v>
       </c>
@@ -3731,10 +3731,10 @@
         <v>2008</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>138</v>
@@ -3743,10 +3743,10 @@
         <v>62059</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>152</v>
       </c>
@@ -3766,10 +3766,10 @@
         <v>2008</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>138</v>
@@ -3778,10 +3778,10 @@
         <v>62022</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>152</v>
       </c>
@@ -3801,10 +3801,10 @@
         <v>2017</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>138</v>
@@ -3813,10 +3813,10 @@
         <v>35321</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>152</v>
       </c>
@@ -3836,22 +3836,22 @@
         <v>2023</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>152</v>
       </c>
@@ -3871,22 +3871,22 @@
         <v>2023</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>152</v>
       </c>
@@ -3906,22 +3906,22 @@
         <v>2023</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>152</v>
       </c>
@@ -3941,22 +3941,22 @@
         <v>2023</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>152</v>
       </c>
@@ -3976,22 +3976,22 @@
         <v>2023</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>152</v>
       </c>
@@ -4011,22 +4011,22 @@
         <v>2023</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>152</v>
       </c>
@@ -4046,22 +4046,22 @@
         <v>2023</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>152</v>
       </c>
@@ -4081,22 +4081,22 @@
         <v>2023</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>152</v>
       </c>
@@ -4116,22 +4116,22 @@
         <v>2010</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>152</v>
       </c>
@@ -4151,22 +4151,22 @@
         <v>2023</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>152</v>
       </c>
@@ -4186,22 +4186,22 @@
         <v>2023</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>152</v>
       </c>
@@ -4221,22 +4221,22 @@
         <v>2023</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>152</v>
       </c>
@@ -4256,22 +4256,22 @@
         <v>2023</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>152</v>
       </c>
@@ -4291,22 +4291,22 @@
         <v>2023</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>152</v>
       </c>
@@ -4326,22 +4326,22 @@
         <v>2023</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>152</v>
       </c>
@@ -4361,22 +4361,22 @@
         <v>2023</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>152</v>
       </c>
@@ -4396,22 +4396,22 @@
         <v>2023</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>152</v>
       </c>
@@ -4431,22 +4431,22 @@
         <v>2023</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>152</v>
       </c>
@@ -4466,22 +4466,22 @@
         <v>2023</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>152</v>
       </c>
@@ -4501,22 +4501,22 @@
         <v>2023</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>152</v>
       </c>
@@ -4536,22 +4536,22 @@
         <v>2023</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>152</v>
       </c>
@@ -4571,22 +4571,22 @@
         <v>2021</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>152</v>
       </c>
@@ -4606,10 +4606,10 @@
         <v>2022</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>138</v>
@@ -4618,10 +4618,10 @@
         <v>138</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>152</v>
       </c>
@@ -4641,10 +4641,10 @@
         <v>2025</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>138</v>
@@ -4653,15 +4653,15 @@
         <v>138</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>252</v>
@@ -4690,9 +4690,9 @@
       </c>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>167</v>
@@ -4706,12 +4706,14 @@
       <c r="E69" s="2">
         <v>32399</v>
       </c>
-      <c r="F69" s="10"/>
+      <c r="F69" s="10">
+        <v>2006</v>
+      </c>
       <c r="G69" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>355</v>
@@ -4720,13 +4722,13 @@
         <v>138</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>167</v>
@@ -4740,9 +4742,11 @@
       <c r="E70" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F70" s="10"/>
+      <c r="F70" s="10">
+        <v>2006</v>
+      </c>
       <c r="G70" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H70" s="10" t="s">
         <v>138</v>
@@ -4758,9 +4762,9 @@
       </c>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>167</v>
@@ -4774,9 +4778,11 @@
       <c r="E71" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F71" s="10"/>
+      <c r="F71" s="10">
+        <v>2006</v>
+      </c>
       <c r="G71" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H71" s="10" t="s">
         <v>138</v>
@@ -4792,9 +4798,9 @@
       </c>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>167</v>
@@ -4808,9 +4814,11 @@
       <c r="E72" s="2">
         <v>38138</v>
       </c>
-      <c r="F72" s="10"/>
+      <c r="F72" s="10">
+        <v>2007</v>
+      </c>
       <c r="G72" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H72" s="10" t="s">
         <v>138</v>
@@ -4822,13 +4830,13 @@
         <v>138</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>167</v>
@@ -4842,9 +4850,11 @@
       <c r="E73" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F73" s="10"/>
+      <c r="F73" s="10">
+        <v>2007</v>
+      </c>
       <c r="G73" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H73" s="10" t="s">
         <v>138</v>
@@ -4860,9 +4870,9 @@
       </c>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>167</v>
@@ -4876,9 +4886,11 @@
       <c r="E74" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F74" s="10"/>
+      <c r="F74" s="10">
+        <v>2007</v>
+      </c>
       <c r="G74" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H74" s="10" t="s">
         <v>138</v>
@@ -4894,9 +4906,9 @@
       </c>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>167</v>
@@ -4910,12 +4922,14 @@
       <c r="E75" s="2">
         <v>21107</v>
       </c>
-      <c r="F75" s="10"/>
+      <c r="F75" s="10">
+        <v>2007</v>
+      </c>
       <c r="G75" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>361</v>
@@ -4924,13 +4938,13 @@
         <v>138</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>167</v>
@@ -4944,9 +4958,11 @@
       <c r="E76" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F76" s="10"/>
+      <c r="F76" s="10">
+        <v>2007</v>
+      </c>
       <c r="G76" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H76" s="10" t="s">
         <v>138</v>
@@ -4962,9 +4978,9 @@
       </c>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>167</v>
@@ -4978,9 +4994,11 @@
       <c r="E77" s="2">
         <v>36530</v>
       </c>
-      <c r="F77" s="10"/>
+      <c r="F77" s="10">
+        <v>2009</v>
+      </c>
       <c r="G77" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H77" s="10" t="s">
         <v>138</v>
@@ -4992,13 +5010,13 @@
         <v>138</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>167</v>
@@ -5012,9 +5030,11 @@
       <c r="E78" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F78" s="10"/>
+      <c r="F78" s="10">
+        <v>2009</v>
+      </c>
       <c r="G78" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H78" s="10" t="s">
         <v>138</v>
@@ -5030,9 +5050,9 @@
       </c>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>167</v>
@@ -5046,9 +5066,11 @@
       <c r="E79" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F79" s="10"/>
+      <c r="F79" s="10">
+        <v>2009</v>
+      </c>
       <c r="G79" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H79" s="10" t="s">
         <v>138</v>
@@ -5064,9 +5086,9 @@
       </c>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>167</v>
@@ -5080,9 +5102,11 @@
       <c r="E80" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F80" s="10"/>
+      <c r="F80" s="10">
+        <v>2009</v>
+      </c>
       <c r="G80" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H80" s="10" t="s">
         <v>138</v>
@@ -5098,9 +5122,9 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>168</v>
@@ -5114,7 +5138,9 @@
       <c r="E81" s="2">
         <v>26681</v>
       </c>
-      <c r="F81" s="10"/>
+      <c r="F81" s="10">
+        <v>2007</v>
+      </c>
       <c r="G81" s="2" t="s">
         <v>138</v>
       </c>
@@ -5132,9 +5158,9 @@
       </c>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>168</v>
@@ -5148,7 +5174,9 @@
       <c r="E82" s="2">
         <v>26678</v>
       </c>
-      <c r="F82" s="10"/>
+      <c r="F82" s="10">
+        <v>2007</v>
+      </c>
       <c r="G82" s="2" t="s">
         <v>330</v>
       </c>
@@ -5162,13 +5190,13 @@
         <v>138</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>168</v>
@@ -5182,7 +5210,9 @@
       <c r="E83" s="2">
         <v>26683</v>
       </c>
-      <c r="F83" s="10"/>
+      <c r="F83" s="10">
+        <v>2007</v>
+      </c>
       <c r="G83" s="2" t="s">
         <v>331</v>
       </c>
@@ -5196,13 +5226,13 @@
         <v>138</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>168</v>
@@ -5216,7 +5246,9 @@
       <c r="E84" s="2">
         <v>26715</v>
       </c>
-      <c r="F84" s="10"/>
+      <c r="F84" s="10">
+        <v>2007</v>
+      </c>
       <c r="G84" s="2" t="s">
         <v>332</v>
       </c>
@@ -5230,13 +5262,13 @@
         <v>138</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>169</v>
@@ -5250,7 +5282,9 @@
       <c r="E85" s="2">
         <v>77749</v>
       </c>
-      <c r="F85" s="15"/>
+      <c r="F85" s="15">
+        <v>2024</v>
+      </c>
       <c r="G85" s="2" t="s">
         <v>333</v>
       </c>
@@ -5264,13 +5298,13 @@
         <v>138</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L85" s="5"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>169</v>
@@ -5284,7 +5318,9 @@
       <c r="E86" s="2">
         <v>77777</v>
       </c>
-      <c r="F86" s="15"/>
+      <c r="F86" s="15">
+        <v>2024</v>
+      </c>
       <c r="G86" s="2" t="s">
         <v>333</v>
       </c>
@@ -5298,13 +5334,13 @@
         <v>138</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L86" s="5"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>170</v>
@@ -5318,7 +5354,9 @@
       <c r="E87" s="2">
         <v>78298</v>
       </c>
-      <c r="F87" s="15"/>
+      <c r="F87" s="15">
+        <v>2024</v>
+      </c>
       <c r="G87" s="2" t="s">
         <v>334</v>
       </c>
@@ -5332,11 +5370,11 @@
         <v>138</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L87" s="5"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>153</v>
       </c>
@@ -5352,7 +5390,9 @@
       <c r="E88" s="2">
         <v>77766</v>
       </c>
-      <c r="F88" s="15"/>
+      <c r="F88" s="15">
+        <v>2024</v>
+      </c>
       <c r="G88" s="2" t="s">
         <v>335</v>
       </c>
@@ -5366,11 +5406,11 @@
         <v>138</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L88" s="5"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>154</v>
       </c>
@@ -5386,7 +5426,9 @@
       <c r="E89" s="2">
         <v>77725</v>
       </c>
-      <c r="F89" s="15"/>
+      <c r="F89" s="15">
+        <v>2017</v>
+      </c>
       <c r="G89" s="2" t="s">
         <v>336</v>
       </c>
@@ -5400,11 +5442,11 @@
         <v>138</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L89" s="5"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>154</v>
       </c>
@@ -5420,7 +5462,9 @@
       <c r="E90" s="2">
         <v>77795</v>
       </c>
-      <c r="F90" s="15"/>
+      <c r="F90" s="15">
+        <v>2017</v>
+      </c>
       <c r="G90" s="2" t="s">
         <v>337</v>
       </c>
@@ -5434,11 +5478,11 @@
         <v>138</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L90" s="5"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>155</v>
       </c>
@@ -5454,7 +5498,9 @@
       <c r="E91" s="2">
         <v>334389</v>
       </c>
-      <c r="F91" s="15"/>
+      <c r="F91" s="15">
+        <v>2023</v>
+      </c>
       <c r="G91" s="2" t="s">
         <v>338</v>
       </c>
@@ -5468,11 +5514,11 @@
         <v>138</v>
       </c>
       <c r="K91" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L91" s="5"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>155</v>
       </c>
@@ -5488,7 +5534,9 @@
       <c r="E92" s="2">
         <v>185319</v>
       </c>
-      <c r="F92" s="15"/>
+      <c r="F92" s="15">
+        <v>2023</v>
+      </c>
       <c r="G92" s="2" t="s">
         <v>338</v>
       </c>
@@ -5502,11 +5550,11 @@
         <v>138</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L92" s="5"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>155</v>
       </c>
@@ -5522,7 +5570,9 @@
       <c r="E93" s="2">
         <v>184758</v>
       </c>
-      <c r="F93" s="15"/>
+      <c r="F93" s="15">
+        <v>2023</v>
+      </c>
       <c r="G93" s="2" t="s">
         <v>338</v>
       </c>
@@ -5536,11 +5586,11 @@
         <v>138</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L93" s="5"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>155</v>
       </c>
@@ -5556,7 +5606,9 @@
       <c r="E94" s="2">
         <v>184522</v>
       </c>
-      <c r="F94" s="15"/>
+      <c r="F94" s="15">
+        <v>2023</v>
+      </c>
       <c r="G94" s="2" t="s">
         <v>338</v>
       </c>
@@ -5570,11 +5622,11 @@
         <v>138</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L94" s="5"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>155</v>
       </c>
@@ -5590,7 +5642,9 @@
       <c r="E95" s="2">
         <v>184520</v>
       </c>
-      <c r="F95" s="15"/>
+      <c r="F95" s="15">
+        <v>2023</v>
+      </c>
       <c r="G95" s="2" t="s">
         <v>338</v>
       </c>
@@ -5604,11 +5658,11 @@
         <v>138</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L95" s="5"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>156</v>
       </c>
@@ -5624,7 +5678,9 @@
       <c r="E96" s="2">
         <v>183891</v>
       </c>
-      <c r="F96" s="15"/>
+      <c r="F96" s="15">
+        <v>2022</v>
+      </c>
       <c r="G96" s="2" t="s">
         <v>339</v>
       </c>
@@ -5638,11 +5694,11 @@
         <v>138</v>
       </c>
       <c r="K96" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L96" s="5"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>156</v>
       </c>
@@ -5658,7 +5714,9 @@
       <c r="E97" s="2">
         <v>183678</v>
       </c>
-      <c r="F97" s="15"/>
+      <c r="F97" s="15">
+        <v>2022</v>
+      </c>
       <c r="G97" s="2" t="s">
         <v>339</v>
       </c>
@@ -5672,11 +5730,11 @@
         <v>138</v>
       </c>
       <c r="K97" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L97" s="5"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>157</v>
       </c>
@@ -5692,7 +5750,9 @@
       <c r="E98" s="2">
         <v>791454</v>
       </c>
-      <c r="F98" s="15"/>
+      <c r="F98" s="15">
+        <v>2022</v>
+      </c>
       <c r="G98" s="2" t="s">
         <v>340</v>
       </c>
@@ -5706,13 +5766,13 @@
         <v>138</v>
       </c>
       <c r="K98" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L98" s="5"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>174</v>
@@ -5726,9 +5786,11 @@
       <c r="E99" s="2">
         <v>255436</v>
       </c>
-      <c r="F99" s="15"/>
+      <c r="F99" s="15">
+        <v>2022</v>
+      </c>
       <c r="G99" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H99" s="10" t="s">
         <v>138</v>
@@ -5740,11 +5802,11 @@
         <v>138</v>
       </c>
       <c r="K99" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L99" s="5"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>158</v>
       </c>
@@ -5760,7 +5822,9 @@
       <c r="E100" s="2">
         <v>526292</v>
       </c>
-      <c r="F100" s="15"/>
+      <c r="F100" s="15">
+        <v>2013</v>
+      </c>
       <c r="G100" s="2" t="s">
         <v>341</v>
       </c>
@@ -5774,11 +5838,11 @@
         <v>138</v>
       </c>
       <c r="K100" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L100" s="5"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>158</v>
       </c>
@@ -5794,7 +5858,9 @@
       <c r="E101" s="2">
         <v>526291</v>
       </c>
-      <c r="F101" s="15"/>
+      <c r="F101" s="15">
+        <v>2013</v>
+      </c>
       <c r="G101" s="2" t="s">
         <v>341</v>
       </c>
@@ -5808,11 +5874,11 @@
         <v>138</v>
       </c>
       <c r="K101" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L101" s="5"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>157</v>
       </c>
@@ -5828,7 +5894,9 @@
       <c r="E102" s="2">
         <v>541871</v>
       </c>
-      <c r="F102" s="15"/>
+      <c r="F102" s="15">
+        <v>2013</v>
+      </c>
       <c r="G102" s="2" t="s">
         <v>342</v>
       </c>
@@ -5842,13 +5910,13 @@
         <v>138</v>
       </c>
       <c r="K102" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L102" s="5"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>176</v>
@@ -5862,9 +5930,11 @@
       <c r="E103" s="2">
         <v>264508</v>
       </c>
-      <c r="F103" s="15"/>
+      <c r="F103" s="15">
+        <v>2013</v>
+      </c>
       <c r="G103" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H103" s="10" t="s">
         <v>138</v>
@@ -5876,13 +5946,13 @@
         <v>138</v>
       </c>
       <c r="K103" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L103" s="5"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>176</v>
@@ -5896,25 +5966,27 @@
       <c r="E104" s="2">
         <v>264507</v>
       </c>
-      <c r="F104" s="15"/>
+      <c r="F104" s="15">
+        <v>2013</v>
+      </c>
       <c r="G104" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H104" s="10" t="s">
         <v>138</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>385</v>
+        <v>576</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K104" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L104" s="5"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>157</v>
       </c>
@@ -5930,7 +6002,9 @@
       <c r="E105" s="2">
         <v>367309</v>
       </c>
-      <c r="F105" s="15"/>
+      <c r="F105" s="15">
+        <v>2007</v>
+      </c>
       <c r="G105" s="2" t="s">
         <v>342</v>
       </c>
@@ -5938,17 +6012,17 @@
         <v>138</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J105" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K105" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L105" s="5"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>156</v>
       </c>
@@ -5964,7 +6038,9 @@
       <c r="E106" s="2">
         <v>336639</v>
       </c>
-      <c r="F106" s="15"/>
+      <c r="F106" s="15">
+        <v>2024</v>
+      </c>
       <c r="G106" s="2" t="s">
         <v>343</v>
       </c>
@@ -5972,17 +6048,17 @@
         <v>138</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J106" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K106" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L106" s="5"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>156</v>
       </c>
@@ -5998,7 +6074,9 @@
       <c r="E107" s="2">
         <v>336640</v>
       </c>
-      <c r="F107" s="15"/>
+      <c r="F107" s="15">
+        <v>2024</v>
+      </c>
       <c r="G107" s="2" t="s">
         <v>343</v>
       </c>
@@ -6006,17 +6084,17 @@
         <v>138</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J107" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K107" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L107" s="5"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>156</v>
       </c>
@@ -6032,7 +6110,9 @@
       <c r="E108" s="2">
         <v>336645</v>
       </c>
-      <c r="F108" s="15"/>
+      <c r="F108" s="15">
+        <v>2024</v>
+      </c>
       <c r="G108" s="2" t="s">
         <v>343</v>
       </c>
@@ -6040,17 +6120,17 @@
         <v>138</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J108" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K108" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L108" s="5"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>156</v>
       </c>
@@ -6066,7 +6146,9 @@
       <c r="E109" s="2">
         <v>336642</v>
       </c>
-      <c r="F109" s="15"/>
+      <c r="F109" s="15">
+        <v>2024</v>
+      </c>
       <c r="G109" s="2" t="s">
         <v>343</v>
       </c>
@@ -6074,17 +6156,17 @@
         <v>138</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J109" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K109" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L109" s="5"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>156</v>
       </c>
@@ -6100,7 +6182,9 @@
       <c r="E110" s="2">
         <v>336647</v>
       </c>
-      <c r="F110" s="15"/>
+      <c r="F110" s="15">
+        <v>2024</v>
+      </c>
       <c r="G110" s="2" t="s">
         <v>343</v>
       </c>
@@ -6108,17 +6192,17 @@
         <v>138</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J110" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K110" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L110" s="5"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>156</v>
       </c>
@@ -6134,7 +6218,9 @@
       <c r="E111" s="2">
         <v>336641</v>
       </c>
-      <c r="F111" s="15"/>
+      <c r="F111" s="15">
+        <v>2024</v>
+      </c>
       <c r="G111" s="2" t="s">
         <v>343</v>
       </c>
@@ -6142,19 +6228,19 @@
         <v>138</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J111" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K111" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L111" s="5"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>176</v>
@@ -6168,25 +6254,27 @@
       <c r="E112" s="2">
         <v>336992</v>
       </c>
-      <c r="F112" s="15"/>
+      <c r="F112" s="15">
+        <v>2024</v>
+      </c>
       <c r="G112" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H112" s="10" t="s">
         <v>138</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J112" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K112" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L112" s="5"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>160</v>
       </c>
@@ -6202,6 +6290,9 @@
       <c r="E113" s="2" t="s">
         <v>328</v>
       </c>
+      <c r="F113" s="11">
+        <v>2017</v>
+      </c>
       <c r="G113" s="2" t="s">
         <v>344</v>
       </c>
@@ -6209,7 +6300,7 @@
         <v>138</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J113" s="3" t="s">
         <v>138</v>
@@ -6218,7 +6309,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>161</v>
       </c>
@@ -6234,6 +6325,9 @@
       <c r="E114" s="2" t="s">
         <v>328</v>
       </c>
+      <c r="F114" s="11">
+        <v>2021</v>
+      </c>
       <c r="G114" s="2" t="s">
         <v>345</v>
       </c>
@@ -6241,7 +6335,7 @@
         <v>138</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J114" s="3" t="s">
         <v>138</v>
@@ -6266,7 +6360,9 @@
       <c r="E115" s="2">
         <v>103761</v>
       </c>
-      <c r="F115" s="14"/>
+      <c r="F115" s="14">
+        <v>2017</v>
+      </c>
       <c r="G115" s="2" t="s">
         <v>346</v>
       </c>
@@ -6274,13 +6370,13 @@
         <v>138</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J115" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L115" s="4"/>
     </row>
@@ -6300,7 +6396,9 @@
       <c r="E116" s="2">
         <v>103824</v>
       </c>
-      <c r="F116" s="14"/>
+      <c r="F116" s="14">
+        <v>2017</v>
+      </c>
       <c r="G116" s="2" t="s">
         <v>346</v>
       </c>
@@ -6308,13 +6406,13 @@
         <v>138</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J116" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L116" s="4"/>
     </row>
@@ -6334,7 +6432,9 @@
       <c r="E117" s="2">
         <v>269554</v>
       </c>
-      <c r="F117" s="14"/>
+      <c r="F117" s="14">
+        <v>2013</v>
+      </c>
       <c r="G117" s="2" t="s">
         <v>347</v>
       </c>
@@ -6342,13 +6442,13 @@
         <v>138</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J117" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K117" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L117" s="4"/>
     </row>
@@ -6368,7 +6468,9 @@
       <c r="E118" s="2">
         <v>269552</v>
       </c>
-      <c r="F118" s="14"/>
+      <c r="F118" s="14">
+        <v>2013</v>
+      </c>
       <c r="G118" s="2" t="s">
         <v>347</v>
       </c>
@@ -6376,13 +6478,13 @@
         <v>138</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J118" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K118" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L118" s="4"/>
     </row>
@@ -6402,7 +6504,9 @@
       <c r="E119" s="2">
         <v>68448</v>
       </c>
-      <c r="F119" s="14"/>
+      <c r="F119" s="14">
+        <v>2008</v>
+      </c>
       <c r="G119" s="2" t="s">
         <v>348</v>
       </c>
@@ -6410,13 +6514,13 @@
         <v>138</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J119" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L119" s="4"/>
     </row>
@@ -6436,7 +6540,9 @@
       <c r="E120" s="2">
         <v>68472</v>
       </c>
-      <c r="F120" s="14"/>
+      <c r="F120" s="14">
+        <v>2009</v>
+      </c>
       <c r="G120" s="2" t="s">
         <v>348</v>
       </c>
@@ -6444,13 +6550,13 @@
         <v>138</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J120" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L120" s="4"/>
     </row>
@@ -6470,7 +6576,9 @@
       <c r="E121" s="2">
         <v>208968</v>
       </c>
-      <c r="F121" s="14"/>
+      <c r="F121" s="14">
+        <v>2009</v>
+      </c>
       <c r="G121" s="2" t="s">
         <v>348</v>
       </c>
@@ -6478,13 +6586,13 @@
         <v>138</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J121" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L121" s="4"/>
     </row>
@@ -6504,7 +6612,9 @@
       <c r="E122" s="2">
         <v>208894</v>
       </c>
-      <c r="F122" s="14"/>
+      <c r="F122" s="14">
+        <v>2009</v>
+      </c>
       <c r="G122" s="2" t="s">
         <v>348</v>
       </c>
@@ -6512,13 +6622,13 @@
         <v>138</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J122" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K122" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L122" s="4"/>
     </row>
@@ -6538,7 +6648,9 @@
       <c r="E123" s="2">
         <v>49505</v>
       </c>
-      <c r="F123" s="14"/>
+      <c r="F123" s="14">
+        <v>2009</v>
+      </c>
       <c r="G123" s="2" t="s">
         <v>349</v>
       </c>
@@ -6546,13 +6658,13 @@
         <v>138</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J123" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K123" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L123" s="4"/>
     </row>
@@ -6572,7 +6684,9 @@
       <c r="E124" s="2">
         <v>202215</v>
       </c>
-      <c r="F124" s="14"/>
+      <c r="F124" s="14">
+        <v>2008</v>
+      </c>
       <c r="G124" s="2" t="s">
         <v>350</v>
       </c>
@@ -6580,13 +6694,13 @@
         <v>138</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J124" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L124" s="4"/>
     </row>
@@ -6606,7 +6720,9 @@
       <c r="E125" s="2">
         <v>184165</v>
       </c>
-      <c r="F125" s="14"/>
+      <c r="F125" s="14">
+        <v>2007</v>
+      </c>
       <c r="G125" s="2" t="s">
         <v>350</v>
       </c>
@@ -6614,13 +6730,13 @@
         <v>138</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J125" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L125" s="4"/>
     </row>
@@ -6640,7 +6756,9 @@
       <c r="E126" s="2">
         <v>189506</v>
       </c>
-      <c r="F126" s="14"/>
+      <c r="F126" s="14">
+        <v>2007</v>
+      </c>
       <c r="G126" s="2" t="s">
         <v>350</v>
       </c>
@@ -6648,13 +6766,13 @@
         <v>138</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J126" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L126" s="4"/>
     </row>
@@ -6674,7 +6792,9 @@
       <c r="E127" s="2">
         <v>35816</v>
       </c>
-      <c r="F127" s="14"/>
+      <c r="F127" s="14">
+        <v>2007</v>
+      </c>
       <c r="G127" s="2" t="s">
         <v>351</v>
       </c>
@@ -6682,13 +6802,13 @@
         <v>138</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J127" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L127" s="4"/>
     </row>
@@ -6708,21 +6828,23 @@
       <c r="E128" s="2">
         <v>298474</v>
       </c>
-      <c r="F128" s="14"/>
+      <c r="F128" s="14">
+        <v>2023</v>
+      </c>
       <c r="G128" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H128" s="10" t="s">
         <v>138</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J128" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K128" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L128" s="4"/>
     </row>
@@ -6742,21 +6864,23 @@
       <c r="E129" s="2">
         <v>294242</v>
       </c>
-      <c r="F129" s="14"/>
+      <c r="F129" s="14">
+        <v>2023</v>
+      </c>
       <c r="G129" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H129" s="10" t="s">
         <v>138</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J129" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K129" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L129" s="4"/>
     </row>
@@ -6776,25 +6900,27 @@
       <c r="E130" s="2">
         <v>298958</v>
       </c>
-      <c r="F130" s="14"/>
+      <c r="F130" s="14">
+        <v>2023</v>
+      </c>
       <c r="G130" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H130" s="10" t="s">
         <v>138</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J130" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K130" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L130" s="4"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>162</v>
       </c>
@@ -6818,17 +6944,17 @@
         <v>138</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J131" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K131" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L131" s="4"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>162</v>
       </c>
@@ -6852,17 +6978,17 @@
         <v>138</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J132" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K132" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L132" s="4"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>162</v>
       </c>
@@ -6886,17 +7012,17 @@
         <v>138</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J133" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K133" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L133" s="4"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>162</v>
       </c>
@@ -6920,17 +7046,17 @@
         <v>138</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J134" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K134" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L134" s="4"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>162</v>
       </c>
@@ -6954,17 +7080,17 @@
         <v>138</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J135" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K135" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L135" s="4"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>162</v>
       </c>
@@ -6988,17 +7114,17 @@
         <v>138</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J136" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K136" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L136" s="4"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>162</v>
       </c>
@@ -7022,17 +7148,17 @@
         <v>138</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J137" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K137" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L137" s="4"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>162</v>
       </c>
@@ -7056,17 +7182,17 @@
         <v>138</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J138" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K138" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L138" s="4"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>162</v>
       </c>
@@ -7090,17 +7216,17 @@
         <v>138</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J139" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K139" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L139" s="4"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>162</v>
       </c>
@@ -7124,17 +7250,17 @@
         <v>138</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J140" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K140" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L140" s="4"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>162</v>
       </c>
@@ -7158,17 +7284,17 @@
         <v>138</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J141" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K141" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L141" s="4"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>162</v>
       </c>
@@ -7192,17 +7318,17 @@
         <v>138</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J142" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K142" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L142" s="4"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>162</v>
       </c>
@@ -7226,17 +7352,17 @@
         <v>138</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J143" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K143" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L143" s="4"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>162</v>
       </c>
@@ -7260,17 +7386,17 @@
         <v>138</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J144" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K144" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L144" s="4"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>162</v>
       </c>
@@ -7294,22 +7420,22 @@
         <v>138</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J145" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K145" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L145" s="4"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>322</v>
@@ -7338,7 +7464,7 @@
       </c>
       <c r="L146" s="4"/>
     </row>
-    <row r="147" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>152</v>
       </c>
@@ -7358,13 +7484,13 @@
         <v>2023</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H147" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>138</v>
@@ -7374,12 +7500,12 @@
       </c>
       <c r="L147" s="5"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>324</v>
@@ -7408,7 +7534,7 @@
       </c>
       <c r="L148" s="4"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>152</v>
       </c>
@@ -7442,7 +7568,7 @@
       </c>
       <c r="L149" s="4"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>152</v>
       </c>
@@ -7450,43 +7576,43 @@
         <v>138</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D150" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H150" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I150" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D151" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="E150" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G150" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H150" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="I150" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J150" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K150" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>488</v>
-      </c>
       <c r="E151" s="3" t="s">
         <v>138</v>
       </c>
@@ -7506,27 +7632,27 @@
         <v>138</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B152" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G152" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="C152" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G152" s="9" t="s">
-        <v>523</v>
-      </c>
       <c r="H152" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I152" s="9" t="s">
         <v>138</v>
@@ -7538,27 +7664,27 @@
         <v>138</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>138</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H153" s="11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I153" s="9" t="s">
         <v>138</v>
@@ -7570,27 +7696,27 @@
         <v>138</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>138</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H154" s="11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I154" s="9" t="s">
         <v>138</v>
@@ -7602,27 +7728,27 @@
         <v>138</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>138</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H155" s="11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I155" s="9" t="s">
         <v>138</v>
@@ -7634,7 +7760,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>152</v>
       </c>
@@ -7642,362 +7768,362 @@
         <v>138</v>
       </c>
       <c r="C156" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G156" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H156" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I156" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H157" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I157" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G158" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H158" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I158" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H159" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I159" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D160" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G160" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H160" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I160" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H161" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I161" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G162" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H162" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I162" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G163" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H163" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I163" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G164" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="H164" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="I164" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G165" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="H165" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="I165" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D166" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="E156" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G156" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H156" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="I156" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J156" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K156" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G157" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H157" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="I157" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J157" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K157" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G158" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H158" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="I158" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J158" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K158" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A159" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G159" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H159" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="I159" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J159" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K159" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A160" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G160" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H160" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="I160" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J160" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K160" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G161" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H161" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="I161" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J161" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K161" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G162" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H162" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="I162" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J162" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K162" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G163" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H163" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="I163" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J163" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K163" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G164" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="H164" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="I164" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J164" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K164" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G165" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="H165" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="I165" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J165" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K165" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="D166" s="3" t="s">
+      <c r="E166" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G166" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H166" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I166" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K166" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D167" s="3" t="s">
         <v>485</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G166" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H166" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="I166" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J166" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K166" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>486</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>138</v>
@@ -8026,10 +8152,10 @@
         <v>138</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>138</v>
@@ -8050,94 +8176,94 @@
         <v>138</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E169" s="3">
         <v>79713</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H169" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I169" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K169" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E170" s="3">
         <v>79717</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H170" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I170" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K170" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="B171" s="3" t="s">
-        <v>533</v>
-      </c>
       <c r="C171" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E171" s="3">
         <v>79684</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H171" s="11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I171" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J171" s="3" t="s">
         <v>138</v>
@@ -8146,12 +8272,23 @@
         <v>138</v>
       </c>
     </row>
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="WRwemcA0nyhlBsNJB+ZrdRdmiulp5J6snsQZWL5Ah84Ed5Vozay/STzz6Yal5yBJ6ZZSR7Wbira9Zl6KkC6oHw==" saltValue="VcbLbYiFYBn8Dk3MVK5/Wg==" spinCount="100000" sqref="B106:B112" name="Range1_2"/>
   </protectedRanges>
-  <autoFilter ref="A1:M175" xr:uid="{6460FE9F-EF3B-4D4D-BCC7-D162649A6FCD}"/>
+  <autoFilter ref="A1:M175" xr:uid="{6460FE9F-EF3B-4D4D-BCC7-D162649A6FCD}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="PICKUP TRUCK-CANTER 3.0 Ton"/>
+        <filter val="TRUCK"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
@@ -8166,27 +8303,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf10023c-c1e1-4ca5-baf6-bad6626b84e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_Flow_SignoffStatus xmlns="cf10023c-c1e1-4ca5-baf6-bad6626b84e9" xsi:nil="true"/>
-    <TaxCatchAll xmlns="40b16217-7e26-4dce-af97-68eaad0f1932" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CD0C5713D8B49840BA44FC47BC25FC9F" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d6c26ebffaa8bbd830e647f783d3198d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf10023c-c1e1-4ca5-baf6-bad6626b84e9" xmlns:ns3="40b16217-7e26-4dce-af97-68eaad0f1932" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f461dd4a85cef57f3309d1104a6214f5" ns2:_="" ns3:_="">
     <xsd:import namespace="cf10023c-c1e1-4ca5-baf6-bad6626b84e9"/>
@@ -8421,26 +8537,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6269017F-E5DB-403C-81C5-BBF155D4F583}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cf10023c-c1e1-4ca5-baf6-bad6626b84e9"/>
-    <ds:schemaRef ds:uri="40b16217-7e26-4dce-af97-68eaad0f1932"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{172B3EEB-21ED-4F96-BCDA-03252FF4BB1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf10023c-c1e1-4ca5-baf6-bad6626b84e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_Flow_SignoffStatus xmlns="cf10023c-c1e1-4ca5-baf6-bad6626b84e9" xsi:nil="true"/>
+    <TaxCatchAll xmlns="40b16217-7e26-4dce-af97-68eaad0f1932" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5A73F1C-4F4E-45A2-8E7F-3EB53382C2D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8457,4 +8575,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{172B3EEB-21ED-4F96-BCDA-03252FF4BB1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6269017F-E5DB-403C-81C5-BBF155D4F583}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cf10023c-c1e1-4ca5-baf6-bad6626b84e9"/>
+    <ds:schemaRef ds:uri="40b16217-7e26-4dce-af97-68eaad0f1932"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>